--- a/outputs-HGR-r202/test-g__Prevotella_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Prevotella_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>Row</t>
   </si>
@@ -319,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,14 +329,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,228 +429,228 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -867,7 +871,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1088,7 +1092,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1309,7 +1313,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1530,7 +1534,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1751,7 +1755,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1972,3315 +1976,3315 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1.3033101440523745e-05</v>
+        <v>0.0028595515573067022</v>
       </c>
       <c r="C8">
-        <v>0.0037169632234370755</v>
+        <v>0.01596171101434293</v>
       </c>
       <c r="D8">
-        <v>0.014107711369392196</v>
+        <v>0.0028910880965597745</v>
       </c>
       <c r="E8">
-        <v>0.0049073030705238689</v>
+        <v>6.8838972868794944e-05</v>
       </c>
       <c r="F8">
-        <v>0.0090649213668958836</v>
+        <v>0.00073932458762298551</v>
       </c>
       <c r="G8">
-        <v>0.0017439959944214373</v>
+        <v>0.00027323551074500568</v>
       </c>
       <c r="H8">
-        <v>0.00016837665961061792</v>
+        <v>0.0032924076008562699</v>
       </c>
       <c r="I8">
-        <v>1.9577933298245513e-05</v>
+        <v>0.00038543399370944846</v>
       </c>
       <c r="J8">
-        <v>1.3726904117966737e-06</v>
+        <v>1.1128242019050767e-06</v>
       </c>
       <c r="K8">
-        <v>2.0183737936398124e-07</v>
+        <v>2.8053260048852624e-05</v>
       </c>
       <c r="L8">
-        <v>0.00054935482071301908</v>
+        <v>0.00035908441984579118</v>
       </c>
       <c r="M8">
-        <v>0.00053970842400515202</v>
+        <v>0.040856900431041142</v>
       </c>
       <c r="N8">
-        <v>4.2318104893010428e-14</v>
+        <v>4.2323500227042212e-14</v>
       </c>
       <c r="O8">
-        <v>0.0021531910282676244</v>
+        <v>0.0015549210313472017</v>
       </c>
       <c r="P8">
-        <v>0.011291420921040175</v>
+        <v>8.2465795626393928e-05</v>
       </c>
       <c r="Q8">
-        <v>0.002220853852864412</v>
+        <v>0.0021464743265764861</v>
       </c>
       <c r="R8">
-        <v>1.3025968692722667e-06</v>
+        <v>0.012690363888756225</v>
       </c>
       <c r="S8">
-        <v>0.002941515047616792</v>
+        <v>0.0034902620621586641</v>
       </c>
       <c r="T8">
-        <v>1.317964349266592e-05</v>
+        <v>5.6350524638904515e-06</v>
       </c>
       <c r="U8">
-        <v>0.00027634788850717693</v>
+        <v>0.010397220063876047</v>
       </c>
       <c r="V8">
-        <v>0.010377344024999357</v>
+        <v>0.003949871391301811</v>
       </c>
       <c r="W8">
-        <v>0.0026521206186529145</v>
+        <v>0.00067058832330514715</v>
       </c>
       <c r="X8">
-        <v>0.17763912963245954</v>
+        <v>0.0016088506065438833</v>
       </c>
       <c r="Y8">
-        <v>0.010185448938929762</v>
+        <v>0.0076933852053194928</v>
       </c>
       <c r="Z8">
-        <v>0.00022963634206793634</v>
+        <v>0.0019200098032221102</v>
       </c>
       <c r="AA8">
-        <v>0.023387769803028532</v>
+        <v>1.2055439168417887e-05</v>
       </c>
       <c r="AB8">
-        <v>0.024344333388445685</v>
+        <v>0.15390722790674241</v>
       </c>
       <c r="AC8">
-        <v>0.00049780075601535076</v>
+        <v>0.001086904810437673</v>
       </c>
       <c r="AD8">
-        <v>0.14191770559802283</v>
+        <v>0.0058888318352638431</v>
       </c>
       <c r="AE8">
-        <v>0.004374475429281514</v>
+        <v>0.0067330618494573797</v>
       </c>
       <c r="AF8">
-        <v>9.4718279206840343e-05</v>
+        <v>0.00013305280745484627</v>
       </c>
       <c r="AG8">
-        <v>2.9023444748676804e-05</v>
+        <v>0.00016819232055853938</v>
       </c>
       <c r="AH8">
-        <v>0.00076954391795949165</v>
+        <v>0.00051131815469283176</v>
       </c>
       <c r="AI8">
-        <v>0.25465678914378337</v>
+        <v>0.018994897084934907</v>
       </c>
       <c r="AJ8">
-        <v>0.0035374819156749585</v>
+        <v>0.036314562130132712</v>
       </c>
       <c r="AK8">
-        <v>5.8004128685278272e-07</v>
+        <v>9.1095967620515179e-07</v>
       </c>
       <c r="AL8">
-        <v>0.00099851436918999459</v>
+        <v>0.0001700076658183366</v>
       </c>
       <c r="AM8">
-        <v>0.003095668466981252</v>
+        <v>0.0034682865620167566</v>
       </c>
       <c r="AN8">
-        <v>0.0038161227926256712</v>
+        <v>0.01055743377228955</v>
       </c>
       <c r="AO8">
-        <v>0.014522079425174594</v>
+        <v>0.030246456739539504</v>
       </c>
       <c r="AP8">
-        <v>4.4414830421255378e-06</v>
+        <v>4.5004150107168751e-08</v>
       </c>
       <c r="AQ8">
-        <v>0.00035452831485832182</v>
+        <v>0.0024904987308548396</v>
       </c>
       <c r="AR8">
-        <v>4.3164740177103762e-06</v>
+        <v>0.0011337631744984091</v>
       </c>
       <c r="AS8">
-        <v>0.044601560475670335</v>
+        <v>0.0013708017517112866</v>
       </c>
       <c r="AT8">
-        <v>3.4043795824848714e-05</v>
+        <v>0.0043925876517483184</v>
       </c>
       <c r="AU8">
-        <v>0.0056595293443897719</v>
+        <v>2.6873037516659435e-05</v>
       </c>
       <c r="AV8">
-        <v>0.015807171123181703</v>
+        <v>0.11087004894880004</v>
       </c>
       <c r="AW8">
-        <v>8.5337817317206085e-07</v>
+        <v>2.5078056751022707e-09</v>
       </c>
       <c r="AX8">
-        <v>0.0067645574169787216</v>
+        <v>0.00021404400463313617</v>
       </c>
       <c r="AY8">
-        <v>0.0041042770954282442</v>
+        <v>0.010703630543791937</v>
       </c>
       <c r="AZ8">
-        <v>0.027927226463504179</v>
+        <v>0.041953074266104139</v>
       </c>
       <c r="BA8">
-        <v>0.015510065545779897</v>
+        <v>0.0075030121489278309</v>
       </c>
       <c r="BB8">
-        <v>0.00024359846522696753</v>
+        <v>0.00010100888738477653</v>
       </c>
       <c r="BC8">
-        <v>0.00011610695485176274</v>
+        <v>2.629730924501756e-06</v>
       </c>
       <c r="BD8">
-        <v>3.7320634066874772e-06</v>
+        <v>1.0353475608755989e-08</v>
       </c>
       <c r="BE8">
-        <v>0.00035995099257312541</v>
+        <v>1.0363349616490269e-07</v>
       </c>
       <c r="BF8">
-        <v>0.00031976930775610637</v>
+        <v>1.2053545899382432e-06</v>
       </c>
       <c r="BG8">
-        <v>0.00097790894307152516</v>
+        <v>1.7616496682699467e-05</v>
       </c>
       <c r="BH8">
-        <v>0.00013861384642206359</v>
+        <v>0.00028126979665983565</v>
       </c>
       <c r="BI8">
-        <v>0.0062763085196961971</v>
+        <v>0.011457706503915876</v>
       </c>
       <c r="BJ8">
-        <v>2.8966938369103781e-07</v>
+        <v>1.0959292286303342e-05</v>
       </c>
       <c r="BK8">
-        <v>0.01012224551915623</v>
+        <v>0.022409101021754339</v>
       </c>
       <c r="BL8">
-        <v>0.00024399431935300745</v>
+        <v>0.0040229981230660407</v>
       </c>
       <c r="BM8">
-        <v>0.00041918627846145403</v>
+        <v>4.0973122285685635e-05</v>
       </c>
       <c r="BN8">
-        <v>0.00076770859609392951</v>
+        <v>0.0010514307851919426</v>
       </c>
       <c r="BO8">
-        <v>0.0069156961382364022</v>
+        <v>0.025337907795242771</v>
       </c>
       <c r="BP8">
-        <v>1.0647000319737877e-05</v>
+        <v>5.2018730819294571e-06</v>
       </c>
       <c r="BQ8">
-        <v>0.0023032501139289138</v>
+        <v>0.0014587165284585531</v>
       </c>
       <c r="BR8">
-        <v>0.01243705215094312</v>
+        <v>0.057202110765521785</v>
       </c>
       <c r="BS8">
-        <v>2.7474295869730711e-05</v>
+        <v>0.0038658064002107108</v>
       </c>
       <c r="BT8">
-        <v>0.10668727811563576</v>
+        <v>0.30995487190735505</v>
       </c>
       <c r="BU8">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.0028595515573067022</v>
+        <v>0.0072502337460287371</v>
       </c>
       <c r="C9">
-        <v>0.01596171101434293</v>
+        <v>0.012445964457286532</v>
       </c>
       <c r="D9">
-        <v>0.0028910880965597745</v>
+        <v>0.0012396940725615544</v>
       </c>
       <c r="E9">
-        <v>6.8838972868794944e-05</v>
+        <v>0.00055683845444442863</v>
       </c>
       <c r="F9">
-        <v>0.00073932458762298551</v>
+        <v>0.00070922924393663502</v>
       </c>
       <c r="G9">
-        <v>0.00027323551074500568</v>
+        <v>0.00014751205427133431</v>
       </c>
       <c r="H9">
-        <v>0.0032924076008562699</v>
+        <v>0.0021046075665216873</v>
       </c>
       <c r="I9">
-        <v>0.00038543399370944846</v>
+        <v>0.0016885593530517587</v>
       </c>
       <c r="J9">
-        <v>1.1128242019050767e-06</v>
+        <v>1.2407551627435748e-05</v>
       </c>
       <c r="K9">
-        <v>2.8053260048852624e-05</v>
+        <v>2.7569636913530896e-06</v>
       </c>
       <c r="L9">
-        <v>0.00035908441984579118</v>
+        <v>0.0016348954727946523</v>
       </c>
       <c r="M9">
-        <v>0.040856900431041142</v>
+        <v>0.024067724700440957</v>
       </c>
       <c r="N9">
-        <v>4.2323500227042212e-14</v>
+        <v>3.4353482930737852e-14</v>
       </c>
       <c r="O9">
-        <v>0.0015549210313472017</v>
+        <v>0.000803960584439768</v>
       </c>
       <c r="P9">
-        <v>8.2465795626393928e-05</v>
+        <v>4.0993937648520105e-05</v>
       </c>
       <c r="Q9">
-        <v>0.0021464743265764861</v>
+        <v>0.0047668479407140451</v>
       </c>
       <c r="R9">
-        <v>0.012690363888756225</v>
+        <v>0.0026441025910917404</v>
       </c>
       <c r="S9">
-        <v>0.0034902620621586641</v>
+        <v>0.090888135661469638</v>
       </c>
       <c r="T9">
-        <v>5.6350524638904515e-06</v>
+        <v>3.5620016173673174e-05</v>
       </c>
       <c r="U9">
-        <v>0.010397220063876047</v>
+        <v>0.0025550980183963842</v>
       </c>
       <c r="V9">
-        <v>0.003949871391301811</v>
+        <v>0.0076985416847046226</v>
       </c>
       <c r="W9">
-        <v>0.00067058832330514715</v>
+        <v>0.00085867469526184985</v>
       </c>
       <c r="X9">
-        <v>0.0016088506065438833</v>
+        <v>0.01019642770802833</v>
       </c>
       <c r="Y9">
-        <v>0.0076933852053194928</v>
+        <v>0.012222698295634639</v>
       </c>
       <c r="Z9">
-        <v>0.0019200098032221102</v>
+        <v>0.0018970494400765195</v>
       </c>
       <c r="AA9">
-        <v>1.2055439168417887e-05</v>
+        <v>9.6309409346991791e-06</v>
       </c>
       <c r="AB9">
-        <v>0.15390722790674241</v>
+        <v>0.028179141760798002</v>
       </c>
       <c r="AC9">
-        <v>0.001086904810437673</v>
+        <v>0.00039046412069689143</v>
       </c>
       <c r="AD9">
-        <v>0.0058888318352638431</v>
+        <v>0.0041618962565526793</v>
       </c>
       <c r="AE9">
-        <v>0.0067330618494573797</v>
+        <v>0.0062471286406169408</v>
       </c>
       <c r="AF9">
-        <v>0.00013305280745484627</v>
+        <v>0.0010137539183901632</v>
       </c>
       <c r="AG9">
-        <v>0.00016819232055853938</v>
+        <v>8.9449499319540444e-05</v>
       </c>
       <c r="AH9">
-        <v>0.00051131815469283176</v>
+        <v>0.0023760692660840478</v>
       </c>
       <c r="AI9">
-        <v>0.018994897084934907</v>
+        <v>0.053923669517295866</v>
       </c>
       <c r="AJ9">
-        <v>0.036314562130132712</v>
+        <v>0.030816885353894607</v>
       </c>
       <c r="AK9">
-        <v>9.1095967620515179e-07</v>
+        <v>2.7525670259071098e-07</v>
       </c>
       <c r="AL9">
-        <v>0.0001700076658183366</v>
+        <v>7.8215208720532159e-05</v>
       </c>
       <c r="AM9">
-        <v>0.0034682865620167566</v>
+        <v>0.0039868919319568635</v>
       </c>
       <c r="AN9">
-        <v>0.01055743377228955</v>
+        <v>0.007142827207494257</v>
       </c>
       <c r="AO9">
-        <v>0.030246456739539504</v>
+        <v>0.013091526111976276</v>
       </c>
       <c r="AP9">
-        <v>4.5004150107168751e-08</v>
+        <v>4.9860544043773743e-07</v>
       </c>
       <c r="AQ9">
-        <v>0.0024904987308548396</v>
+        <v>0.00016207537281215956</v>
       </c>
       <c r="AR9">
-        <v>0.0011337631744984091</v>
+        <v>0.00035625449675072879</v>
       </c>
       <c r="AS9">
-        <v>0.0013708017517112866</v>
+        <v>0.00071691742622680078</v>
       </c>
       <c r="AT9">
-        <v>0.0043925876517483184</v>
+        <v>0.01065102306271036</v>
       </c>
       <c r="AU9">
-        <v>2.6873037516659435e-05</v>
+        <v>4.482963039476244e-05</v>
       </c>
       <c r="AV9">
-        <v>0.11087004894880004</v>
+        <v>0.11368042501241801</v>
       </c>
       <c r="AW9">
-        <v>2.5078056751022707e-09</v>
+        <v>4.4333601815025736e-09</v>
       </c>
       <c r="AX9">
-        <v>0.00021404400463313617</v>
+        <v>0.00035749457044738288</v>
       </c>
       <c r="AY9">
-        <v>0.010703630543791937</v>
+        <v>0.0086072954055741498</v>
       </c>
       <c r="AZ9">
-        <v>0.041953074266104139</v>
+        <v>0.032698621651813572</v>
       </c>
       <c r="BA9">
-        <v>0.0075030121489278309</v>
+        <v>0.0059558717453189365</v>
       </c>
       <c r="BB9">
-        <v>0.00010100888738477653</v>
+        <v>0.00018126030166666786</v>
       </c>
       <c r="BC9">
-        <v>2.629730924501756e-06</v>
+        <v>6.3479985325040983e-06</v>
       </c>
       <c r="BD9">
-        <v>1.0353475608755989e-08</v>
+        <v>3.7713602328926966e-09</v>
       </c>
       <c r="BE9">
-        <v>1.0363349616490269e-07</v>
+        <v>6.8937378874351704e-06</v>
       </c>
       <c r="BF9">
-        <v>1.2053545899382432e-06</v>
+        <v>6.7766319870257534e-05</v>
       </c>
       <c r="BG9">
-        <v>1.7616496682699467e-05</v>
+        <v>1.3679923388589071e-05</v>
       </c>
       <c r="BH9">
-        <v>0.00028126979665983565</v>
+        <v>0.00040855336505482348</v>
       </c>
       <c r="BI9">
-        <v>0.011457706503915876</v>
+        <v>0.010428584404395503</v>
       </c>
       <c r="BJ9">
-        <v>1.0959292286303342e-05</v>
+        <v>1.8449273541845291e-06</v>
       </c>
       <c r="BK9">
-        <v>0.022409101021754339</v>
+        <v>0.021160294759600972</v>
       </c>
       <c r="BL9">
-        <v>0.0040229981230660407</v>
+        <v>0.0019134715663499491</v>
       </c>
       <c r="BM9">
-        <v>4.0973122285685635e-05</v>
+        <v>3.3256986679042894e-05</v>
       </c>
       <c r="BN9">
-        <v>0.0010514307851919426</v>
+        <v>0.00038642460527355752</v>
       </c>
       <c r="BO9">
-        <v>0.025337907795242771</v>
+        <v>0.027196863971394886</v>
       </c>
       <c r="BP9">
-        <v>5.2018730819294571e-06</v>
+        <v>9.9653915003874951e-06</v>
       </c>
       <c r="BQ9">
-        <v>0.0014587165284585531</v>
+        <v>0.00082431272968948603</v>
       </c>
       <c r="BR9">
-        <v>0.057202110765521785</v>
+        <v>0.03265367811185952</v>
       </c>
       <c r="BS9">
-        <v>0.0038658064002107108</v>
+        <v>0.0011505249844596694</v>
       </c>
       <c r="BT9">
-        <v>0.30995487190735505</v>
+        <v>0.39234856152864994</v>
       </c>
       <c r="BU9">
         <v>71</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.0072502337460287371</v>
+        <v>1.2340858467251417e-08</v>
       </c>
       <c r="C10">
-        <v>0.012445964457286532</v>
+        <v>0.0016953236901328264</v>
       </c>
       <c r="D10">
-        <v>0.0012396940725615544</v>
+        <v>0.0022426467814728158</v>
       </c>
       <c r="E10">
-        <v>0.00055683845444442863</v>
+        <v>1.0399151901722358e-05</v>
       </c>
       <c r="F10">
-        <v>0.00070922924393663502</v>
+        <v>0.00063893421009193828</v>
       </c>
       <c r="G10">
-        <v>0.00014751205427133431</v>
+        <v>9.307602339141893e-05</v>
       </c>
       <c r="H10">
-        <v>0.0021046075665216873</v>
+        <v>5.8121247224281924e-06</v>
       </c>
       <c r="I10">
-        <v>0.0016885593530517587</v>
+        <v>1.4193101096444337e-06</v>
       </c>
       <c r="J10">
-        <v>1.2407551627435748e-05</v>
+        <v>2.9427407496702441e-10</v>
       </c>
       <c r="K10">
-        <v>2.7569636913530896e-06</v>
+        <v>1.1155624066621924e-05</v>
       </c>
       <c r="L10">
-        <v>0.0016348954727946523</v>
+        <v>3.511912033382207e-05</v>
       </c>
       <c r="M10">
-        <v>0.024067724700440957</v>
+        <v>1.3072197968504293e-06</v>
       </c>
       <c r="N10">
-        <v>3.4353482930737852e-14</v>
+        <v>2.2205883828448076e-14</v>
       </c>
       <c r="O10">
-        <v>0.000803960584439768</v>
+        <v>0.00055546097888167973</v>
       </c>
       <c r="P10">
-        <v>4.0993937648520105e-05</v>
+        <v>7.7051133944800175e-05</v>
       </c>
       <c r="Q10">
-        <v>0.0047668479407140451</v>
+        <v>3.8310056518247159e-06</v>
       </c>
       <c r="R10">
-        <v>0.0026441025910917404</v>
+        <v>1.2286333399436308e-07</v>
       </c>
       <c r="S10">
-        <v>0.090888135661469638</v>
+        <v>1.4154369059331305e-05</v>
       </c>
       <c r="T10">
-        <v>3.5620016173673174e-05</v>
+        <v>2.9739241432754035e-06</v>
       </c>
       <c r="U10">
-        <v>0.0025550980183963842</v>
+        <v>8.6217305192565045e-05</v>
       </c>
       <c r="V10">
-        <v>0.0076985416847046226</v>
+        <v>3.8016064248198681e-08</v>
       </c>
       <c r="W10">
-        <v>0.00085867469526184985</v>
+        <v>0.00055459100622782577</v>
       </c>
       <c r="X10">
-        <v>0.01019642770802833</v>
+        <v>0.0002343446447037547</v>
       </c>
       <c r="Y10">
-        <v>0.012222698295634639</v>
+        <v>0.00086749103472956728</v>
       </c>
       <c r="Z10">
-        <v>0.0018970494400765195</v>
+        <v>0.002017711400637473</v>
       </c>
       <c r="AA10">
-        <v>9.6309409346991791e-06</v>
+        <v>0.95351521999992095</v>
       </c>
       <c r="AB10">
-        <v>0.028179141760798002</v>
+        <v>9.6433130609197329e-05</v>
       </c>
       <c r="AC10">
-        <v>0.00039046412069689143</v>
+        <v>0.0012397113204160991</v>
       </c>
       <c r="AD10">
-        <v>0.0041618962565526793</v>
+        <v>0.0008002344000278865</v>
       </c>
       <c r="AE10">
-        <v>0.0062471286406169408</v>
+        <v>0.0051697978246436757</v>
       </c>
       <c r="AF10">
-        <v>0.0010137539183901632</v>
+        <v>7.3337022195149692e-06</v>
       </c>
       <c r="AG10">
-        <v>8.9449499319540444e-05</v>
+        <v>0.00069226701105076153</v>
       </c>
       <c r="AH10">
-        <v>0.0023760692660840478</v>
+        <v>2.7393529580815754e-05</v>
       </c>
       <c r="AI10">
-        <v>0.053923669517295866</v>
+        <v>0.010916791493130722</v>
       </c>
       <c r="AJ10">
-        <v>0.030816885353894607</v>
+        <v>0.00055548813184380012</v>
       </c>
       <c r="AK10">
-        <v>2.7525670259071098e-07</v>
+        <v>4.8986218460715993e-09</v>
       </c>
       <c r="AL10">
-        <v>7.8215208720532159e-05</v>
+        <v>0.0074954713911120881</v>
       </c>
       <c r="AM10">
-        <v>0.0039868919319568635</v>
+        <v>6.2078844465928226e-05</v>
       </c>
       <c r="AN10">
-        <v>0.007142827207494257</v>
+        <v>0.00031742474981452521</v>
       </c>
       <c r="AO10">
-        <v>0.013091526111976276</v>
+        <v>5.8402113937764062e-06</v>
       </c>
       <c r="AP10">
-        <v>4.9860544043773743e-07</v>
+        <v>3.3261861643774779e-06</v>
       </c>
       <c r="AQ10">
-        <v>0.00016207537281215956</v>
+        <v>4.1420068170617952e-06</v>
       </c>
       <c r="AR10">
-        <v>0.00035625449675072879</v>
+        <v>3.2324990451303517e-05</v>
       </c>
       <c r="AS10">
-        <v>0.00071691742622680078</v>
+        <v>2.304617814432489e-05</v>
       </c>
       <c r="AT10">
-        <v>0.01065102306271036</v>
+        <v>1.3762529432610225e-08</v>
       </c>
       <c r="AU10">
-        <v>4.482963039476244e-05</v>
+        <v>1.817327715272745e-06</v>
       </c>
       <c r="AV10">
-        <v>0.11368042501241801</v>
+        <v>0.00026423914691637462</v>
       </c>
       <c r="AW10">
-        <v>4.4333601815025736e-09</v>
+        <v>1.5299492027280259e-08</v>
       </c>
       <c r="AX10">
-        <v>0.00035749457044738288</v>
+        <v>0.00035706533022122872</v>
       </c>
       <c r="AY10">
-        <v>0.0086072954055741498</v>
+        <v>0.00030490596424939285</v>
       </c>
       <c r="AZ10">
-        <v>0.032698621651813572</v>
+        <v>0.0003103176107373555</v>
       </c>
       <c r="BA10">
-        <v>0.0059558717453189365</v>
+        <v>0.00053515711735923276</v>
       </c>
       <c r="BB10">
-        <v>0.00018126030166666786</v>
+        <v>1.6028266874038262e-06</v>
       </c>
       <c r="BC10">
-        <v>6.3479985325040983e-06</v>
+        <v>0.00017356010684507051</v>
       </c>
       <c r="BD10">
-        <v>3.7713602328926966e-09</v>
+        <v>1.3319300418439414e-05</v>
       </c>
       <c r="BE10">
-        <v>6.8937378874351704e-06</v>
+        <v>9.73808424652659e-06</v>
       </c>
       <c r="BF10">
-        <v>6.7766319870257534e-05</v>
+        <v>3.5086684689743085e-06</v>
       </c>
       <c r="BG10">
-        <v>1.3679923388589071e-05</v>
+        <v>8.8369044163183022e-06</v>
       </c>
       <c r="BH10">
-        <v>0.00040855336505482348</v>
+        <v>7.7379929225985253e-05</v>
       </c>
       <c r="BI10">
-        <v>0.010428584404395503</v>
+        <v>2.0143296389731426e-05</v>
       </c>
       <c r="BJ10">
-        <v>1.8449273541845291e-06</v>
+        <v>6.0492954910017328e-08</v>
       </c>
       <c r="BK10">
-        <v>0.021160294759600972</v>
+        <v>0.00078816193524960834</v>
       </c>
       <c r="BL10">
-        <v>0.0019134715663499491</v>
+        <v>4.3590887398169603e-05</v>
       </c>
       <c r="BM10">
-        <v>3.3256986679042894e-05</v>
+        <v>8.7262777381422441e-06</v>
       </c>
       <c r="BN10">
-        <v>0.00038642460527355752</v>
+        <v>0.00054119031413940295</v>
       </c>
       <c r="BO10">
-        <v>0.027196863971394886</v>
+        <v>0.00062066722691586423</v>
       </c>
       <c r="BP10">
-        <v>9.9653915003874951e-06</v>
+        <v>1.4205726619699718e-06</v>
       </c>
       <c r="BQ10">
-        <v>0.00082431272968948603</v>
+        <v>0.0015063766833305523</v>
       </c>
       <c r="BR10">
-        <v>0.03265367811185952</v>
+        <v>0.0022732475635755651</v>
       </c>
       <c r="BS10">
-        <v>0.0011505249844596694</v>
+        <v>0.0010663901711057491</v>
       </c>
       <c r="BT10">
-        <v>0.39234856152864994</v>
+        <v>0.00095502362483737807</v>
       </c>
       <c r="BU10">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1.2340858467251417e-08</v>
+        <v>7.4592415408124827e-09</v>
       </c>
       <c r="C11">
-        <v>0.0016953236901328264</v>
+        <v>0.0010751248662402278</v>
       </c>
       <c r="D11">
-        <v>0.0022426467814728158</v>
+        <v>0.0027553569565734169</v>
       </c>
       <c r="E11">
-        <v>1.0399151901722358e-05</v>
+        <v>4.8409239636025274e-05</v>
       </c>
       <c r="F11">
-        <v>0.00063893421009193828</v>
+        <v>0.00064330855392095532</v>
       </c>
       <c r="G11">
-        <v>9.307602339141893e-05</v>
+        <v>9.7443197242992361e-05</v>
       </c>
       <c r="H11">
-        <v>5.8121247224281924e-06</v>
+        <v>5.0670891288133417e-07</v>
       </c>
       <c r="I11">
-        <v>1.4193101096444337e-06</v>
+        <v>8.9859774513430537e-07</v>
       </c>
       <c r="J11">
-        <v>2.9427407496702441e-10</v>
+        <v>7.2169237914474785e-10</v>
       </c>
       <c r="K11">
-        <v>1.1155624066621924e-05</v>
+        <v>1.2784715864615115e-07</v>
       </c>
       <c r="L11">
-        <v>3.511912033382207e-05</v>
+        <v>4.5195843923808269e-06</v>
       </c>
       <c r="M11">
-        <v>1.3072197968504293e-06</v>
+        <v>4.8410911040170152e-07</v>
       </c>
       <c r="N11">
-        <v>2.2205883828448076e-14</v>
+        <v>2.220504223267916e-14</v>
       </c>
       <c r="O11">
-        <v>0.00055546097888167973</v>
+        <v>0.00046224341695191856</v>
       </c>
       <c r="P11">
-        <v>7.7051133944800175e-05</v>
+        <v>1.6576018251407857e-05</v>
       </c>
       <c r="Q11">
-        <v>3.8310056518247159e-06</v>
+        <v>1.8601867924637645e-06</v>
       </c>
       <c r="R11">
-        <v>1.2286333399436308e-07</v>
+        <v>2.0760070002497633e-07</v>
       </c>
       <c r="S11">
-        <v>1.4154369059331305e-05</v>
+        <v>1.4105038141320116e-05</v>
       </c>
       <c r="T11">
-        <v>2.9739241432754035e-06</v>
+        <v>2.1114738385799963e-06</v>
       </c>
       <c r="U11">
-        <v>8.6217305192565045e-05</v>
+        <v>0.0012404805398455528</v>
       </c>
       <c r="V11">
-        <v>3.8016064248198681e-08</v>
+        <v>3.9342228042532359e-09</v>
       </c>
       <c r="W11">
-        <v>0.00055459100622782577</v>
+        <v>0.00074079836969738369</v>
       </c>
       <c r="X11">
-        <v>0.0002343446447037547</v>
+        <v>0.0086284084629483955</v>
       </c>
       <c r="Y11">
-        <v>0.00086749103472956728</v>
+        <v>0.0028654971466017462</v>
       </c>
       <c r="Z11">
-        <v>0.002017711400637473</v>
+        <v>0.0025778387099316845</v>
       </c>
       <c r="AA11">
-        <v>0.95351521999992095</v>
+        <v>0.94817290626946815</v>
       </c>
       <c r="AB11">
-        <v>9.6433130609197329e-05</v>
+        <v>6.4126629276710048e-05</v>
       </c>
       <c r="AC11">
-        <v>0.0012397113204160991</v>
+        <v>0.00012381121399703712</v>
       </c>
       <c r="AD11">
-        <v>0.0008002344000278865</v>
+        <v>0.00031022927836834473</v>
       </c>
       <c r="AE11">
-        <v>0.0051697978246436757</v>
+        <v>0.0013951230922664077</v>
       </c>
       <c r="AF11">
-        <v>7.3337022195149692e-06</v>
+        <v>6.4103522659386976e-06</v>
       </c>
       <c r="AG11">
-        <v>0.00069226701105076153</v>
+        <v>3.1535370447663073e-05</v>
       </c>
       <c r="AH11">
-        <v>2.7393529580815754e-05</v>
+        <v>4.5721954263432133e-05</v>
       </c>
       <c r="AI11">
-        <v>0.010916791493130722</v>
+        <v>0.0079173182016983486</v>
       </c>
       <c r="AJ11">
-        <v>0.00055548813184380012</v>
+        <v>0.00088284651659441152</v>
       </c>
       <c r="AK11">
-        <v>4.8986218460715993e-09</v>
+        <v>6.2316478318220702e-09</v>
       </c>
       <c r="AL11">
-        <v>0.0074954713911120881</v>
+        <v>0.0098241899076719104</v>
       </c>
       <c r="AM11">
-        <v>6.2078844465928226e-05</v>
+        <v>5.4466409248215201e-05</v>
       </c>
       <c r="AN11">
-        <v>0.00031742474981452521</v>
+        <v>0.00019522220031633735</v>
       </c>
       <c r="AO11">
-        <v>5.8402113937764062e-06</v>
+        <v>2.5084681469422031e-06</v>
       </c>
       <c r="AP11">
-        <v>3.3261861643774779e-06</v>
+        <v>3.6162732218878787e-06</v>
       </c>
       <c r="AQ11">
-        <v>4.1420068170617952e-06</v>
+        <v>1.5198376395208555e-06</v>
       </c>
       <c r="AR11">
-        <v>3.2324990451303517e-05</v>
+        <v>7.5768516159315996e-06</v>
       </c>
       <c r="AS11">
-        <v>2.304617814432489e-05</v>
+        <v>6.9064240866272982e-06</v>
       </c>
       <c r="AT11">
-        <v>1.3762529432610225e-08</v>
+        <v>1.6756518456208866e-08</v>
       </c>
       <c r="AU11">
-        <v>1.817327715272745e-06</v>
+        <v>5.9993828744025336e-08</v>
       </c>
       <c r="AV11">
-        <v>0.00026423914691637462</v>
+        <v>0.00018039115503161752</v>
       </c>
       <c r="AW11">
-        <v>1.5299492027280259e-08</v>
+        <v>7.1851049198643783e-09</v>
       </c>
       <c r="AX11">
-        <v>0.00035706533022122872</v>
+        <v>0.00054436336167137055</v>
       </c>
       <c r="AY11">
-        <v>0.00030490596424939285</v>
+        <v>0.0003685546450882834</v>
       </c>
       <c r="AZ11">
-        <v>0.0003103176107373555</v>
+        <v>0.00021848542120755495</v>
       </c>
       <c r="BA11">
-        <v>0.00053515711735923276</v>
+        <v>0.0014235998882003232</v>
       </c>
       <c r="BB11">
-        <v>1.6028266874038262e-06</v>
+        <v>3.4344576218717564e-06</v>
       </c>
       <c r="BC11">
-        <v>0.00017356010684507051</v>
+        <v>0.00035768596392287978</v>
       </c>
       <c r="BD11">
-        <v>1.3319300418439414e-05</v>
+        <v>4.5957102391602318e-05</v>
       </c>
       <c r="BE11">
-        <v>9.73808424652659e-06</v>
+        <v>1.6060192108373321e-06</v>
       </c>
       <c r="BF11">
-        <v>3.5086684689743085e-06</v>
+        <v>2.1004607956552127e-05</v>
       </c>
       <c r="BG11">
-        <v>8.8369044163183022e-06</v>
+        <v>1.5320157939956653e-06</v>
       </c>
       <c r="BH11">
-        <v>7.7379929225985253e-05</v>
+        <v>4.2471102382694838e-05</v>
       </c>
       <c r="BI11">
-        <v>2.0143296389731426e-05</v>
+        <v>3.722121460253457e-05</v>
       </c>
       <c r="BJ11">
-        <v>6.0492954910017328e-08</v>
+        <v>6.9749020579330624e-08</v>
       </c>
       <c r="BK11">
-        <v>0.00078816193524960834</v>
+        <v>0.00067889935797610737</v>
       </c>
       <c r="BL11">
-        <v>4.3590887398169603e-05</v>
+        <v>7.7020845540821554e-05</v>
       </c>
       <c r="BM11">
-        <v>8.7262777381422441e-06</v>
+        <v>0.00019278479934886527</v>
       </c>
       <c r="BN11">
-        <v>0.00054119031413940295</v>
+        <v>0.00042899975132538787</v>
       </c>
       <c r="BO11">
-        <v>0.00062066722691586423</v>
+        <v>0.00043011868113124538</v>
       </c>
       <c r="BP11">
-        <v>1.4205726619699718e-06</v>
+        <v>1.4226268365541835e-06</v>
       </c>
       <c r="BQ11">
-        <v>0.0015063766833305523</v>
+        <v>0.00089382851985879343</v>
       </c>
       <c r="BR11">
-        <v>0.0022732475635755651</v>
+        <v>0.0025192281614707119</v>
       </c>
       <c r="BS11">
-        <v>0.0010663901711057491</v>
+        <v>7.4737082034827227e-05</v>
       </c>
       <c r="BT11">
-        <v>0.00095502362483737807</v>
+        <v>0.0012341393128677629</v>
       </c>
       <c r="BU11">
         <v>26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>7.4592415408124827e-09</v>
+        <v>1.3059673634323356e-07</v>
       </c>
       <c r="C12">
-        <v>0.0010751248662402278</v>
+        <v>0.00054040903154240058</v>
       </c>
       <c r="D12">
-        <v>0.0027553569565734169</v>
+        <v>0.0033740194793162549</v>
       </c>
       <c r="E12">
-        <v>4.8409239636025274e-05</v>
+        <v>0.00052722023044517912</v>
       </c>
       <c r="F12">
-        <v>0.00064330855392095532</v>
+        <v>5.6490875842989854e-07</v>
       </c>
       <c r="G12">
-        <v>9.7443197242992361e-05</v>
+        <v>1.7757329418812137e-05</v>
       </c>
       <c r="H12">
-        <v>5.0670891288133417e-07</v>
+        <v>4.119617509632179e-05</v>
       </c>
       <c r="I12">
-        <v>8.9859774513430537e-07</v>
+        <v>0.00116278576865905</v>
       </c>
       <c r="J12">
-        <v>7.2169237914474785e-10</v>
+        <v>4.2079903470938115e-09</v>
       </c>
       <c r="K12">
-        <v>1.2784715864615115e-07</v>
+        <v>2.2704715857204469e-09</v>
       </c>
       <c r="L12">
-        <v>4.5195843923808269e-06</v>
+        <v>0.0001952962213327764</v>
       </c>
       <c r="M12">
-        <v>4.8410911040170152e-07</v>
+        <v>0.92361479158105031</v>
       </c>
       <c r="N12">
-        <v>2.220504223267916e-14</v>
+        <v>2.2208151451080125e-14</v>
       </c>
       <c r="O12">
-        <v>0.00046224341695191856</v>
+        <v>0.0021594696437073359</v>
       </c>
       <c r="P12">
-        <v>1.6576018251407857e-05</v>
+        <v>1.0227326272850274e-05</v>
       </c>
       <c r="Q12">
-        <v>1.8601867924637645e-06</v>
+        <v>0.0014597307179950345</v>
       </c>
       <c r="R12">
-        <v>2.0760070002497633e-07</v>
+        <v>1.1934672159188698e-05</v>
       </c>
       <c r="S12">
-        <v>1.4105038141320116e-05</v>
+        <v>8.4576821737559563e-09</v>
       </c>
       <c r="T12">
-        <v>2.1114738385799963e-06</v>
+        <v>0.00012962417116465418</v>
       </c>
       <c r="U12">
-        <v>0.0012404805398455528</v>
+        <v>5.5306497357463538e-05</v>
       </c>
       <c r="V12">
-        <v>3.9342228042532359e-09</v>
+        <v>1.8473178753086061e-05</v>
       </c>
       <c r="W12">
-        <v>0.00074079836969738369</v>
+        <v>1.2076632224279081e-05</v>
       </c>
       <c r="X12">
-        <v>0.0086284084629483955</v>
+        <v>1.5528423868805817e-07</v>
       </c>
       <c r="Y12">
-        <v>0.0028654971466017462</v>
+        <v>0.0010410181776347076</v>
       </c>
       <c r="Z12">
-        <v>0.0025778387099316845</v>
+        <v>0.003725799544062327</v>
       </c>
       <c r="AA12">
-        <v>0.94817290626946815</v>
+        <v>5.4813585674094643e-05</v>
       </c>
       <c r="AB12">
-        <v>6.4126629276710048e-05</v>
+        <v>7.7889260405471277e-08</v>
       </c>
       <c r="AC12">
-        <v>0.00012381121399703712</v>
+        <v>0.00026797114818879071</v>
       </c>
       <c r="AD12">
-        <v>0.00031022927836834473</v>
+        <v>0.00024505038315949341</v>
       </c>
       <c r="AE12">
-        <v>0.0013951230922664077</v>
+        <v>0.00094558071772582551</v>
       </c>
       <c r="AF12">
-        <v>6.4103522659386976e-06</v>
+        <v>6.3560787208158126e-08</v>
       </c>
       <c r="AG12">
-        <v>3.1535370447663073e-05</v>
+        <v>4.5217067505862683e-06</v>
       </c>
       <c r="AH12">
-        <v>4.5721954263432133e-05</v>
+        <v>6.8477691732412278e-05</v>
       </c>
       <c r="AI12">
-        <v>0.0079173182016983486</v>
+        <v>0.027693442554613774</v>
       </c>
       <c r="AJ12">
-        <v>0.00088284651659441152</v>
+        <v>0.003161500366009185</v>
       </c>
       <c r="AK12">
-        <v>6.2316478318220702e-09</v>
+        <v>2.0453847650554998e-07</v>
       </c>
       <c r="AL12">
-        <v>0.0098241899076719104</v>
+        <v>4.2656205577378947e-09</v>
       </c>
       <c r="AM12">
-        <v>5.4466409248215201e-05</v>
+        <v>6.005644814930751e-06</v>
       </c>
       <c r="AN12">
-        <v>0.00019522220031633735</v>
+        <v>0.00024215286236823751</v>
       </c>
       <c r="AO12">
-        <v>2.5084681469422031e-06</v>
+        <v>5.7861948151501303e-05</v>
       </c>
       <c r="AP12">
-        <v>3.6162732218878787e-06</v>
+        <v>1.5788602398496103e-07</v>
       </c>
       <c r="AQ12">
-        <v>1.5198376395208555e-06</v>
+        <v>9.0048825997143909e-05</v>
       </c>
       <c r="AR12">
-        <v>7.5768516159315996e-06</v>
+        <v>9.004561770098688e-06</v>
       </c>
       <c r="AS12">
-        <v>6.9064240866272982e-06</v>
+        <v>3.0619172021558154e-07</v>
       </c>
       <c r="AT12">
-        <v>1.6756518456208866e-08</v>
+        <v>2.246261631285861e-05</v>
       </c>
       <c r="AU12">
-        <v>5.9993828744025336e-08</v>
+        <v>1.1661813034273091e-05</v>
       </c>
       <c r="AV12">
-        <v>0.00018039115503161752</v>
+        <v>0.0026048119077387993</v>
       </c>
       <c r="AW12">
-        <v>7.1851049198643783e-09</v>
+        <v>1.9522701768745824e-06</v>
       </c>
       <c r="AX12">
-        <v>0.00054436336167137055</v>
+        <v>0.00083726780328976299</v>
       </c>
       <c r="AY12">
-        <v>0.0003685546450882834</v>
+        <v>0.0070221461428911494</v>
       </c>
       <c r="AZ12">
-        <v>0.00021848542120755495</v>
+        <v>0.00093672698668982287</v>
       </c>
       <c r="BA12">
-        <v>0.0014235998882003232</v>
+        <v>0.0048749754539057135</v>
       </c>
       <c r="BB12">
-        <v>3.4344576218717564e-06</v>
+        <v>2.495570339516007e-07</v>
       </c>
       <c r="BC12">
-        <v>0.00035768596392287978</v>
+        <v>3.8315396448047051e-07</v>
       </c>
       <c r="BD12">
-        <v>4.5957102391602318e-05</v>
+        <v>5.3366294212466358e-05</v>
       </c>
       <c r="BE12">
-        <v>1.6060192108373321e-06</v>
+        <v>8.775918278146993e-06</v>
       </c>
       <c r="BF12">
-        <v>2.1004607956552127e-05</v>
+        <v>0.00059177311568442902</v>
       </c>
       <c r="BG12">
-        <v>1.5320157939956653e-06</v>
+        <v>8.4642991632612595e-07</v>
       </c>
       <c r="BH12">
-        <v>4.2471102382694838e-05</v>
+        <v>0.00038994551822251286</v>
       </c>
       <c r="BI12">
-        <v>3.722121460253457e-05</v>
+        <v>9.9172983138300982e-06</v>
       </c>
       <c r="BJ12">
-        <v>6.9749020579330624e-08</v>
+        <v>0.0035058648064338078</v>
       </c>
       <c r="BK12">
-        <v>0.00067889935797610737</v>
+        <v>0.0003054226204339364</v>
       </c>
       <c r="BL12">
-        <v>7.7020845540821554e-05</v>
+        <v>4.2664074535779895e-05</v>
       </c>
       <c r="BM12">
-        <v>0.00019278479934886527</v>
+        <v>6.8043648605878227e-07</v>
       </c>
       <c r="BN12">
-        <v>0.00042899975132538787</v>
+        <v>2.6430872526233755e-05</v>
       </c>
       <c r="BO12">
-        <v>0.00043011868113124538</v>
+        <v>0.00013717759139127725</v>
       </c>
       <c r="BP12">
-        <v>1.4226268365541835e-06</v>
+        <v>1.6071890246706364e-07</v>
       </c>
       <c r="BQ12">
-        <v>0.00089382851985879343</v>
+        <v>0.0041756255184809323</v>
       </c>
       <c r="BR12">
-        <v>0.0025192281614707119</v>
+        <v>0.00092335635727432337</v>
       </c>
       <c r="BS12">
-        <v>7.4737082034827227e-05</v>
+        <v>2.4193618802708615e-05</v>
       </c>
       <c r="BT12">
-        <v>0.0012341393128677629</v>
+        <v>0.0025459126721305591</v>
       </c>
       <c r="BU12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1.3059673634323356e-07</v>
+        <v>0.00016261268358573977</v>
       </c>
       <c r="C13">
-        <v>0.00054040903154240058</v>
+        <v>0.0029015734515322206</v>
       </c>
       <c r="D13">
-        <v>0.0033740194793162549</v>
+        <v>0.00015861148950203132</v>
       </c>
       <c r="E13">
-        <v>0.00052722023044517912</v>
+        <v>4.6929502978887507e-05</v>
       </c>
       <c r="F13">
-        <v>5.6490875842989854e-07</v>
+        <v>1.0066844220398546e-05</v>
       </c>
       <c r="G13">
-        <v>1.7757329418812137e-05</v>
+        <v>9.820956315451298e-05</v>
       </c>
       <c r="H13">
-        <v>4.119617509632179e-05</v>
+        <v>4.9650826062846796e-05</v>
       </c>
       <c r="I13">
-        <v>0.00116278576865905</v>
+        <v>5.8323229712356955e-05</v>
       </c>
       <c r="J13">
-        <v>4.2079903470938115e-09</v>
+        <v>2.8468272785310069e-07</v>
       </c>
       <c r="K13">
-        <v>2.2704715857204469e-09</v>
+        <v>9.8784765060841083e-06</v>
       </c>
       <c r="L13">
-        <v>0.0001952962213327764</v>
+        <v>4.4005299232161486e-05</v>
       </c>
       <c r="M13">
-        <v>0.92361479158105031</v>
+        <v>0.0042293995475375101</v>
       </c>
       <c r="N13">
-        <v>2.2208151451080125e-14</v>
+        <v>2.2211077144707833e-14</v>
       </c>
       <c r="O13">
-        <v>0.0021594696437073359</v>
+        <v>0.00011657902342105959</v>
       </c>
       <c r="P13">
-        <v>1.0227326272850274e-05</v>
+        <v>0.00010479475844457319</v>
       </c>
       <c r="Q13">
-        <v>0.0014597307179950345</v>
+        <v>0.0017779138247701737</v>
       </c>
       <c r="R13">
-        <v>1.1934672159188698e-05</v>
+        <v>0.00035377235368809295</v>
       </c>
       <c r="S13">
-        <v>8.4576821737559563e-09</v>
+        <v>0.00026341794383965493</v>
       </c>
       <c r="T13">
-        <v>0.00012962417116465418</v>
+        <v>3.1508170540424079e-07</v>
       </c>
       <c r="U13">
-        <v>5.5306497357463538e-05</v>
+        <v>0.0010336499141940867</v>
       </c>
       <c r="V13">
-        <v>1.8473178753086061e-05</v>
+        <v>0.000438491984038934</v>
       </c>
       <c r="W13">
-        <v>1.2076632224279081e-05</v>
+        <v>0.0001144147467185845</v>
       </c>
       <c r="X13">
-        <v>1.5528423868805817e-07</v>
+        <v>0.001601725341082114</v>
       </c>
       <c r="Y13">
-        <v>0.0010410181776347076</v>
+        <v>0.005586329321993321</v>
       </c>
       <c r="Z13">
-        <v>0.003725799544062327</v>
+        <v>0.0015620701043328124</v>
       </c>
       <c r="AA13">
-        <v>5.4813585674094643e-05</v>
+        <v>4.7835139556744916e-05</v>
       </c>
       <c r="AB13">
-        <v>7.7889260405471277e-08</v>
+        <v>0.90844080248263648</v>
       </c>
       <c r="AC13">
-        <v>0.00026797114818879071</v>
+        <v>0.0003365569011704924</v>
       </c>
       <c r="AD13">
-        <v>0.00024505038315949341</v>
+        <v>0.0025706866914820712</v>
       </c>
       <c r="AE13">
-        <v>0.00094558071772582551</v>
+        <v>0.00076740477140314683</v>
       </c>
       <c r="AF13">
-        <v>6.3560787208158126e-08</v>
+        <v>0.0003465340799648111</v>
       </c>
       <c r="AG13">
-        <v>4.5217067505862683e-06</v>
+        <v>2.1860740719538048e-05</v>
       </c>
       <c r="AH13">
-        <v>6.8477691732412278e-05</v>
+        <v>0.00042726668277123802</v>
       </c>
       <c r="AI13">
-        <v>0.027693442554613774</v>
+        <v>0.0082062953898162701</v>
       </c>
       <c r="AJ13">
-        <v>0.003161500366009185</v>
+        <v>0.0037935013338611869</v>
       </c>
       <c r="AK13">
-        <v>2.0453847650554998e-07</v>
+        <v>5.7501665390497885e-07</v>
       </c>
       <c r="AL13">
-        <v>4.2656205577378947e-09</v>
+        <v>5.9026402377387012e-05</v>
       </c>
       <c r="AM13">
-        <v>6.005644814930751e-06</v>
+        <v>7.857017446182502e-05</v>
       </c>
       <c r="AN13">
-        <v>0.00024215286236823751</v>
+        <v>0.0066760412926427084</v>
       </c>
       <c r="AO13">
-        <v>5.7861948151501303e-05</v>
+        <v>0.00032986072833977181</v>
       </c>
       <c r="AP13">
-        <v>1.5788602398496103e-07</v>
+        <v>3.3825487393347171e-09</v>
       </c>
       <c r="AQ13">
-        <v>9.0048825997143909e-05</v>
+        <v>5.6527843492332048e-05</v>
       </c>
       <c r="AR13">
-        <v>9.004561770098688e-06</v>
+        <v>9.5881585592069897e-05</v>
       </c>
       <c r="AS13">
-        <v>3.0619172021558154e-07</v>
+        <v>5.3983688315271894e-05</v>
       </c>
       <c r="AT13">
-        <v>2.246261631285861e-05</v>
+        <v>0.00033935405031233041</v>
       </c>
       <c r="AU13">
-        <v>1.1661813034273091e-05</v>
+        <v>1.1242912641686274e-05</v>
       </c>
       <c r="AV13">
-        <v>0.0026048119077387993</v>
+        <v>0.0023994257698180554</v>
       </c>
       <c r="AW13">
-        <v>1.9522701768745824e-06</v>
+        <v>2.4677968850564199e-12</v>
       </c>
       <c r="AX13">
-        <v>0.00083726780328976299</v>
+        <v>0.00074127126941211713</v>
       </c>
       <c r="AY13">
-        <v>0.0070221461428911494</v>
+        <v>0.0024971979056099755</v>
       </c>
       <c r="AZ13">
-        <v>0.00093672698668982287</v>
+        <v>0.0044610301672012975</v>
       </c>
       <c r="BA13">
-        <v>0.0048749754539057135</v>
+        <v>0.01315836560076878</v>
       </c>
       <c r="BB13">
-        <v>2.495570339516007e-07</v>
+        <v>0.00024110596385754023</v>
       </c>
       <c r="BC13">
-        <v>3.8315396448047051e-07</v>
+        <v>5.7470269303114492e-06</v>
       </c>
       <c r="BD13">
-        <v>5.3366294212466358e-05</v>
+        <v>1.0845555944882698e-08</v>
       </c>
       <c r="BE13">
-        <v>8.775918278146993e-06</v>
+        <v>1.2701239952583618e-08</v>
       </c>
       <c r="BF13">
-        <v>0.00059177311568442902</v>
+        <v>1.4350456526502401e-07</v>
       </c>
       <c r="BG13">
-        <v>8.4642991632612595e-07</v>
+        <v>1.9275329942069812e-06</v>
       </c>
       <c r="BH13">
-        <v>0.00038994551822251286</v>
+        <v>4.1186719400216259e-05</v>
       </c>
       <c r="BI13">
-        <v>9.9172983138300982e-06</v>
+        <v>0.0025740355744973699</v>
       </c>
       <c r="BJ13">
-        <v>0.0035058648064338078</v>
+        <v>5.9840877702398496e-06</v>
       </c>
       <c r="BK13">
-        <v>0.0003054226204339364</v>
+        <v>0.0047438328463274768</v>
       </c>
       <c r="BL13">
-        <v>4.2664074535779895e-05</v>
+        <v>0.00028659989024270514</v>
       </c>
       <c r="BM13">
-        <v>6.8043648605878227e-07</v>
+        <v>0.00030645211950291676</v>
       </c>
       <c r="BN13">
-        <v>2.6430872526233755e-05</v>
+        <v>4.1067901721182083e-05</v>
       </c>
       <c r="BO13">
-        <v>0.00013717759139127725</v>
+        <v>0.0030540443063215303</v>
       </c>
       <c r="BP13">
-        <v>1.6071890246706364e-07</v>
+        <v>4.4222867676771079e-06</v>
       </c>
       <c r="BQ13">
-        <v>0.0041756255184809323</v>
+        <v>0.0011870592072275035</v>
       </c>
       <c r="BR13">
-        <v>0.00092335635727432337</v>
+        <v>0.0093590229736601749</v>
       </c>
       <c r="BS13">
-        <v>2.4193618802708615e-05</v>
+        <v>0.00010419020169518416</v>
       </c>
       <c r="BT13">
-        <v>0.0025459126721305591</v>
+        <v>0.0014030323086810167</v>
       </c>
       <c r="BU13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.00016261268358573977</v>
+        <v>2.3466074220879116e-06</v>
       </c>
       <c r="C14">
-        <v>0.0029015734515322206</v>
+        <v>0.0057555526007624092</v>
       </c>
       <c r="D14">
-        <v>0.00015861148950203132</v>
+        <v>0.040714128690324994</v>
       </c>
       <c r="E14">
-        <v>4.6929502978887507e-05</v>
+        <v>0.00060296149429477661</v>
       </c>
       <c r="F14">
-        <v>1.0066844220398546e-05</v>
+        <v>0.011763066560418596</v>
       </c>
       <c r="G14">
-        <v>9.820956315451298e-05</v>
+        <v>0.00018721489051118438</v>
       </c>
       <c r="H14">
-        <v>4.9650826062846796e-05</v>
+        <v>0.00048990241807493628</v>
       </c>
       <c r="I14">
-        <v>5.8323229712356955e-05</v>
+        <v>3.6691414201141476e-05</v>
       </c>
       <c r="J14">
-        <v>2.8468272785310069e-07</v>
+        <v>2.3918215118995984e-09</v>
       </c>
       <c r="K14">
-        <v>9.8784765060841083e-06</v>
+        <v>0.0048613381892436379</v>
       </c>
       <c r="L14">
-        <v>4.4005299232161486e-05</v>
+        <v>3.5104595294509421e-05</v>
       </c>
       <c r="M14">
-        <v>0.0042293995475375101</v>
+        <v>0.00036746260362544112</v>
       </c>
       <c r="N14">
-        <v>2.2211077144707833e-14</v>
+        <v>2.858245124762435e-14</v>
       </c>
       <c r="O14">
-        <v>0.00011657902342105959</v>
+        <v>0.01227458315688819</v>
       </c>
       <c r="P14">
-        <v>0.00010479475844457319</v>
+        <v>0.00019357207413145798</v>
       </c>
       <c r="Q14">
-        <v>0.0017779138247701737</v>
+        <v>2.5079421662999376e-05</v>
       </c>
       <c r="R14">
-        <v>0.00035377235368809295</v>
+        <v>1.060922184223675e-06</v>
       </c>
       <c r="S14">
-        <v>0.00026341794383965493</v>
+        <v>0.059344500316204592</v>
       </c>
       <c r="T14">
-        <v>3.1508170540424079e-07</v>
+        <v>1.1836105386578075e-05</v>
       </c>
       <c r="U14">
-        <v>0.0010336499141940867</v>
+        <v>0.001609163100553917</v>
       </c>
       <c r="V14">
-        <v>0.000438491984038934</v>
+        <v>0.0020976432025215661</v>
       </c>
       <c r="W14">
-        <v>0.0001144147467185845</v>
+        <v>0.0012169713896377332</v>
       </c>
       <c r="X14">
-        <v>0.001601725341082114</v>
+        <v>0.09211114173445907</v>
       </c>
       <c r="Y14">
-        <v>0.005586329321993321</v>
+        <v>0.066474669233364467</v>
       </c>
       <c r="Z14">
-        <v>0.0015620701043328124</v>
+        <v>0.0010508837470240991</v>
       </c>
       <c r="AA14">
-        <v>4.7835139556744916e-05</v>
+        <v>0.48399873937985649</v>
       </c>
       <c r="AB14">
-        <v>0.90844080248263648</v>
+        <v>0.0070551079530097576</v>
       </c>
       <c r="AC14">
-        <v>0.0003365569011704924</v>
+        <v>0.00090317941406210551</v>
       </c>
       <c r="AD14">
-        <v>0.0025706866914820712</v>
+        <v>0.042901849395616996</v>
       </c>
       <c r="AE14">
-        <v>0.00076740477140314683</v>
+        <v>0.024631791137213248</v>
       </c>
       <c r="AF14">
-        <v>0.0003465340799648111</v>
+        <v>1.6534896966586287e-05</v>
       </c>
       <c r="AG14">
-        <v>2.1860740719538048e-05</v>
+        <v>0.00070258061620348826</v>
       </c>
       <c r="AH14">
-        <v>0.00042726668277123802</v>
+        <v>0.00044668389540106332</v>
       </c>
       <c r="AI14">
-        <v>0.0082062953898162701</v>
+        <v>0.015815230044956496</v>
       </c>
       <c r="AJ14">
-        <v>0.0037935013338611869</v>
+        <v>0.022927829763814179</v>
       </c>
       <c r="AK14">
-        <v>5.7501665390497885e-07</v>
+        <v>2.4723307803491133e-07</v>
       </c>
       <c r="AL14">
-        <v>5.9026402377387012e-05</v>
+        <v>0.013187375811566317</v>
       </c>
       <c r="AM14">
-        <v>7.857017446182502e-05</v>
+        <v>0.002230485474306842</v>
       </c>
       <c r="AN14">
-        <v>0.0066760412926427084</v>
+        <v>0.0034960037662190762</v>
       </c>
       <c r="AO14">
-        <v>0.00032986072833977181</v>
+        <v>0.00018469968865392615</v>
       </c>
       <c r="AP14">
-        <v>3.3825487393347171e-09</v>
+        <v>1.5261288461217496e-05</v>
       </c>
       <c r="AQ14">
-        <v>5.6527843492332048e-05</v>
+        <v>0.00026771278290682935</v>
       </c>
       <c r="AR14">
-        <v>9.5881585592069897e-05</v>
+        <v>0.00026866067191893368</v>
       </c>
       <c r="AS14">
-        <v>5.3983688315271894e-05</v>
+        <v>0.00012008366820066653</v>
       </c>
       <c r="AT14">
-        <v>0.00033935405031233041</v>
+        <v>4.0312274250305596e-06</v>
       </c>
       <c r="AU14">
-        <v>1.1242912641686274e-05</v>
+        <v>0.00023727894683146279</v>
       </c>
       <c r="AV14">
-        <v>0.0023994257698180554</v>
+        <v>0.0015875840106396404</v>
       </c>
       <c r="AW14">
-        <v>2.4677968850564199e-12</v>
+        <v>2.0087303995794517e-07</v>
       </c>
       <c r="AX14">
-        <v>0.00074127126941211713</v>
+        <v>0.00011920830507369303</v>
       </c>
       <c r="AY14">
-        <v>0.0024971979056099755</v>
+        <v>0.0051148162530862242</v>
       </c>
       <c r="AZ14">
-        <v>0.0044610301672012975</v>
+        <v>0.0076933335903519124</v>
       </c>
       <c r="BA14">
-        <v>0.01315836560076878</v>
+        <v>0.0055819615139623933</v>
       </c>
       <c r="BB14">
-        <v>0.00024110596385754023</v>
+        <v>5.7247701069878424e-06</v>
       </c>
       <c r="BC14">
-        <v>5.7470269303114492e-06</v>
+        <v>0.00024786123974333943</v>
       </c>
       <c r="BD14">
-        <v>1.0845555944882698e-08</v>
+        <v>3.3819421556888499e-07</v>
       </c>
       <c r="BE14">
-        <v>1.2701239952583618e-08</v>
+        <v>1.230583524583033e-06</v>
       </c>
       <c r="BF14">
-        <v>1.4350456526502401e-07</v>
+        <v>0.0002545045327367054</v>
       </c>
       <c r="BG14">
-        <v>1.9275329942069812e-06</v>
+        <v>0.00020326634244927934</v>
       </c>
       <c r="BH14">
-        <v>4.1186719400216259e-05</v>
+        <v>0.0037217685932613032</v>
       </c>
       <c r="BI14">
-        <v>0.0025740355744973699</v>
+        <v>0.00077443191725949396</v>
       </c>
       <c r="BJ14">
-        <v>5.9840877702398496e-06</v>
+        <v>2.8596938810779359e-07</v>
       </c>
       <c r="BK14">
-        <v>0.0047438328463274768</v>
+        <v>0.006537401927295826</v>
       </c>
       <c r="BL14">
-        <v>0.00028659989024270514</v>
+        <v>0.00014764886958067204</v>
       </c>
       <c r="BM14">
-        <v>0.00030645211950291676</v>
+        <v>0.00013807215413866552</v>
       </c>
       <c r="BN14">
-        <v>4.1067901721182083e-05</v>
+        <v>0.0021438546893958348</v>
       </c>
       <c r="BO14">
-        <v>0.0030540443063215303</v>
+        <v>0.0044309378845353853</v>
       </c>
       <c r="BP14">
-        <v>4.4222867676771079e-06</v>
+        <v>7.5987069446919168e-07</v>
       </c>
       <c r="BQ14">
-        <v>0.0011870592072275035</v>
+        <v>0.0036769017551937376</v>
       </c>
       <c r="BR14">
-        <v>0.0093590229736601749</v>
+        <v>0.029792125170048325</v>
       </c>
       <c r="BS14">
-        <v>0.00010419020169518416</v>
+        <v>0.0003322112004182856</v>
       </c>
       <c r="BT14">
-        <v>0.0014030323086810167</v>
+        <v>0.0068553258731482887</v>
       </c>
       <c r="BU14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2.3466074220879116e-06</v>
+        <v>1.6769936566596903e-06</v>
       </c>
       <c r="C15">
-        <v>0.0057555526007624092</v>
+        <v>0.0013273403245699612</v>
       </c>
       <c r="D15">
-        <v>0.040714128690324994</v>
+        <v>0.014753298499078927</v>
       </c>
       <c r="E15">
-        <v>0.00060296149429477661</v>
+        <v>0.001719442572595707</v>
       </c>
       <c r="F15">
-        <v>0.011763066560418596</v>
+        <v>1.8341665779371313e-07</v>
       </c>
       <c r="G15">
-        <v>0.00018721489051118438</v>
+        <v>7.4148760850476666e-05</v>
       </c>
       <c r="H15">
-        <v>0.00048990241807493628</v>
+        <v>0.0049746129337122436</v>
       </c>
       <c r="I15">
-        <v>3.6691414201141476e-05</v>
+        <v>5.3320827235451964e-05</v>
       </c>
       <c r="J15">
-        <v>2.3918215118995984e-09</v>
+        <v>3.8968975611440805e-09</v>
       </c>
       <c r="K15">
-        <v>0.0048613381892436379</v>
+        <v>7.9934971030745901e-07</v>
       </c>
       <c r="L15">
-        <v>3.5104595294509421e-05</v>
+        <v>1.1408098893402673e-05</v>
       </c>
       <c r="M15">
-        <v>0.00036746260362544112</v>
+        <v>0.019436971284420717</v>
       </c>
       <c r="N15">
-        <v>2.858245124762435e-14</v>
+        <v>2.3315867629102169e-14</v>
       </c>
       <c r="O15">
-        <v>0.01227458315688819</v>
+        <v>0.0038719705035198731</v>
       </c>
       <c r="P15">
-        <v>0.00019357207413145798</v>
+        <v>2.4027657786063463e-06</v>
       </c>
       <c r="Q15">
-        <v>2.5079421662999376e-05</v>
+        <v>0.00026014206447409484</v>
       </c>
       <c r="R15">
-        <v>1.060922184223675e-06</v>
+        <v>0.00050221949100487135</v>
       </c>
       <c r="S15">
-        <v>0.059344500316204592</v>
+        <v>2.8748505989438364e-05</v>
       </c>
       <c r="T15">
-        <v>1.1836105386578075e-05</v>
+        <v>1.5787840041780358e-05</v>
       </c>
       <c r="U15">
-        <v>0.001609163100553917</v>
+        <v>0.011886746045421141</v>
       </c>
       <c r="V15">
-        <v>0.0020976432025215661</v>
+        <v>1.6481850925382349e-06</v>
       </c>
       <c r="W15">
-        <v>0.0012169713896377332</v>
+        <v>4.728498439316969e-05</v>
       </c>
       <c r="X15">
-        <v>0.09211114173445907</v>
+        <v>3.6173442002171813e-06</v>
       </c>
       <c r="Y15">
-        <v>0.066474669233364467</v>
+        <v>0.0048648756675099547</v>
       </c>
       <c r="Z15">
-        <v>0.0010508837470240991</v>
+        <v>0.0092194671042648991</v>
       </c>
       <c r="AA15">
-        <v>0.48399873937985649</v>
+        <v>0.00019856517548099298</v>
       </c>
       <c r="AB15">
-        <v>0.0070551079530097576</v>
+        <v>4.4387197188137303e-06</v>
       </c>
       <c r="AC15">
-        <v>0.00090317941406210551</v>
+        <v>0.00023415385032104404</v>
       </c>
       <c r="AD15">
-        <v>0.042901849395616996</v>
+        <v>0.0033637546567478623</v>
       </c>
       <c r="AE15">
-        <v>0.024631791137213248</v>
+        <v>0.00097450968594971026</v>
       </c>
       <c r="AF15">
-        <v>1.6534896966586287e-05</v>
+        <v>7.9558930494526556e-08</v>
       </c>
       <c r="AG15">
-        <v>0.00070258061620348826</v>
+        <v>3.8602352820745056e-06</v>
       </c>
       <c r="AH15">
-        <v>0.00044668389540106332</v>
+        <v>0.00011442477265741564</v>
       </c>
       <c r="AI15">
-        <v>0.015815230044956496</v>
+        <v>0.0164483830545686</v>
       </c>
       <c r="AJ15">
-        <v>0.022927829763814179</v>
+        <v>0.021010528864072939</v>
       </c>
       <c r="AK15">
-        <v>2.4723307803491133e-07</v>
+        <v>1.2497574228608724e-07</v>
       </c>
       <c r="AL15">
-        <v>0.013187375811566317</v>
+        <v>2.2910349720431188e-07</v>
       </c>
       <c r="AM15">
-        <v>0.002230485474306842</v>
+        <v>6.452823103008962e-05</v>
       </c>
       <c r="AN15">
-        <v>0.0034960037662190762</v>
+        <v>0.00047497938871643848</v>
       </c>
       <c r="AO15">
-        <v>0.00018469968865392615</v>
+        <v>8.6232529548784512e-05</v>
       </c>
       <c r="AP15">
-        <v>1.5261288461217496e-05</v>
+        <v>9.5130027740498911e-08</v>
       </c>
       <c r="AQ15">
-        <v>0.00026771278290682935</v>
+        <v>0.00072426954096339923</v>
       </c>
       <c r="AR15">
-        <v>0.00026866067191893368</v>
+        <v>7.4800949546721364e-05</v>
       </c>
       <c r="AS15">
-        <v>0.00012008366820066653</v>
+        <v>1.1342209912433871e-05</v>
       </c>
       <c r="AT15">
-        <v>4.0312274250305596e-06</v>
+        <v>6.8334831811022798e-05</v>
       </c>
       <c r="AU15">
-        <v>0.00023727894683146279</v>
+        <v>5.2468831776923147e-06</v>
       </c>
       <c r="AV15">
-        <v>0.0015875840106396404</v>
+        <v>0.013821650885095068</v>
       </c>
       <c r="AW15">
-        <v>2.0087303995794517e-07</v>
+        <v>2.4880388956026161e-07</v>
       </c>
       <c r="AX15">
-        <v>0.00011920830507369303</v>
+        <v>0.004842180899147298</v>
       </c>
       <c r="AY15">
-        <v>0.0051148162530862242</v>
+        <v>0.013417586273577302</v>
       </c>
       <c r="AZ15">
-        <v>0.0076933335903519124</v>
+        <v>0.0031173924344385972</v>
       </c>
       <c r="BA15">
-        <v>0.0055819615139623933</v>
+        <v>0.033323804416144895</v>
       </c>
       <c r="BB15">
-        <v>5.7247701069878424e-06</v>
+        <v>9.687337147209338e-06</v>
       </c>
       <c r="BC15">
-        <v>0.00024786123974333943</v>
+        <v>2.5022549853443721e-06</v>
       </c>
       <c r="BD15">
-        <v>3.3819421556888499e-07</v>
+        <v>0.00026527149552068528</v>
       </c>
       <c r="BE15">
-        <v>1.230583524583033e-06</v>
+        <v>1.9503792187407641e-08</v>
       </c>
       <c r="BF15">
-        <v>0.0002545045327367054</v>
+        <v>0.00012451976603085888</v>
       </c>
       <c r="BG15">
-        <v>0.00020326634244927934</v>
+        <v>6.4885609067306594e-07</v>
       </c>
       <c r="BH15">
-        <v>0.0037217685932613032</v>
+        <v>5.3398073894151634e-05</v>
       </c>
       <c r="BI15">
-        <v>0.00077443191725949396</v>
+        <v>2.4417506603551501e-05</v>
       </c>
       <c r="BJ15">
-        <v>2.8596938810779359e-07</v>
+        <v>0.00019261460369925416</v>
       </c>
       <c r="BK15">
-        <v>0.006537401927295826</v>
+        <v>0.00044613537456739263</v>
       </c>
       <c r="BL15">
-        <v>0.00014764886958067204</v>
+        <v>0.00029207032598873878</v>
       </c>
       <c r="BM15">
-        <v>0.00013807215413866552</v>
+        <v>7.8174022336332061e-06</v>
       </c>
       <c r="BN15">
-        <v>0.0021438546893958348</v>
+        <v>0.00039938353213128197</v>
       </c>
       <c r="BO15">
-        <v>0.0044309378845353853</v>
+        <v>0.0004327968877812103</v>
       </c>
       <c r="BP15">
-        <v>7.5987069446919168e-07</v>
+        <v>2.2485145040980137e-07</v>
       </c>
       <c r="BQ15">
-        <v>0.0036769017551937376</v>
+        <v>0.0047311791560937389</v>
       </c>
       <c r="BR15">
-        <v>0.029792125170048325</v>
+        <v>0.004714975685766014</v>
       </c>
       <c r="BS15">
-        <v>0.0003322112004182856</v>
+        <v>1.763391286310225e-05</v>
       </c>
       <c r="BT15">
-        <v>0.0068553258731482887</v>
+        <v>0.80284083995337086</v>
       </c>
       <c r="BU15">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>1.6769936566596903e-06</v>
+        <v>2.5909661635172006e-05</v>
       </c>
       <c r="C16">
-        <v>0.0013273403245699612</v>
+        <v>0.0051737223942318411</v>
       </c>
       <c r="D16">
-        <v>0.014753298499078927</v>
+        <v>0.10677320726728227</v>
       </c>
       <c r="E16">
-        <v>0.001719442572595707</v>
+        <v>0.0020654411055005821</v>
       </c>
       <c r="F16">
-        <v>1.8341665779371313e-07</v>
+        <v>0.00057468527841205883</v>
       </c>
       <c r="G16">
-        <v>7.4148760850476666e-05</v>
+        <v>0.001180248225172121</v>
       </c>
       <c r="H16">
-        <v>0.0049746129337122436</v>
+        <v>0.049813768481846293</v>
       </c>
       <c r="I16">
-        <v>5.3320827235451964e-05</v>
+        <v>0.003591352223746771</v>
       </c>
       <c r="J16">
-        <v>3.8968975611440805e-09</v>
+        <v>1.2085396970128893e-10</v>
       </c>
       <c r="K16">
-        <v>7.9934971030745901e-07</v>
+        <v>4.411628675520916e-05</v>
       </c>
       <c r="L16">
-        <v>1.1408098893402673e-05</v>
+        <v>0.00028301319688478439</v>
       </c>
       <c r="M16">
-        <v>0.019436971284420717</v>
+        <v>0.00031618559768984355</v>
       </c>
       <c r="N16">
-        <v>2.3315867629102169e-14</v>
+        <v>3.7373755965954873e-14</v>
       </c>
       <c r="O16">
-        <v>0.0038719705035198731</v>
+        <v>0.0011195295977288781</v>
       </c>
       <c r="P16">
-        <v>2.4027657786063463e-06</v>
+        <v>2.3326355822025822e-05</v>
       </c>
       <c r="Q16">
-        <v>0.00026014206447409484</v>
+        <v>0.0012199584960662726</v>
       </c>
       <c r="R16">
-        <v>0.00050221949100487135</v>
+        <v>2.1594744292668253e-06</v>
       </c>
       <c r="S16">
-        <v>2.8748505989438364e-05</v>
+        <v>0.00018546383744463788</v>
       </c>
       <c r="T16">
-        <v>1.5787840041780358e-05</v>
+        <v>2.8950320905997272e-06</v>
       </c>
       <c r="U16">
-        <v>0.011886746045421141</v>
+        <v>8.3912986177473538e-05</v>
       </c>
       <c r="V16">
-        <v>1.6481850925382349e-06</v>
+        <v>0.61726581419630078</v>
       </c>
       <c r="W16">
-        <v>4.728498439316969e-05</v>
+        <v>6.2296856550124531e-06</v>
       </c>
       <c r="X16">
-        <v>3.6173442002171813e-06</v>
+        <v>4.5766518479167548e-09</v>
       </c>
       <c r="Y16">
-        <v>0.0048648756675099547</v>
+        <v>0.0024510854555541257</v>
       </c>
       <c r="Z16">
-        <v>0.0092194671042648991</v>
+        <v>0.0084469784240713431</v>
       </c>
       <c r="AA16">
-        <v>0.00019856517548099298</v>
+        <v>0.0036276171905743125</v>
       </c>
       <c r="AB16">
-        <v>4.4387197188137303e-06</v>
+        <v>8.7982410732407963e-05</v>
       </c>
       <c r="AC16">
-        <v>0.00023415385032104404</v>
+        <v>0.0012363065396489544</v>
       </c>
       <c r="AD16">
-        <v>0.0033637546567478623</v>
+        <v>0.036013385617679118</v>
       </c>
       <c r="AE16">
-        <v>0.00097450968594971026</v>
+        <v>0.0051145693401022825</v>
       </c>
       <c r="AF16">
-        <v>7.9558930494526556e-08</v>
+        <v>5.9873386369007562e-05</v>
       </c>
       <c r="AG16">
-        <v>3.8602352820745056e-06</v>
+        <v>0.0036651508304670062</v>
       </c>
       <c r="AH16">
-        <v>0.00011442477265741564</v>
+        <v>0.00025452013038955527</v>
       </c>
       <c r="AI16">
-        <v>0.0164483830545686</v>
+        <v>0.016619201951430629</v>
       </c>
       <c r="AJ16">
-        <v>0.021010528864072939</v>
+        <v>0.0031431670953378094</v>
       </c>
       <c r="AK16">
-        <v>1.2497574228608724e-07</v>
+        <v>7.2670388958190523e-06</v>
       </c>
       <c r="AL16">
-        <v>2.2910349720431188e-07</v>
+        <v>6.9670503284404063e-05</v>
       </c>
       <c r="AM16">
-        <v>6.452823103008962e-05</v>
+        <v>0.0026901416321744908</v>
       </c>
       <c r="AN16">
-        <v>0.00047497938871643848</v>
+        <v>0.0069933671800579602</v>
       </c>
       <c r="AO16">
-        <v>8.6232529548784512e-05</v>
+        <v>0.00027865247800346537</v>
       </c>
       <c r="AP16">
-        <v>9.5130027740498911e-08</v>
+        <v>7.2684002109281913e-07</v>
       </c>
       <c r="AQ16">
-        <v>0.00072426954096339923</v>
+        <v>0.00069120820980444868</v>
       </c>
       <c r="AR16">
-        <v>7.4800949546721364e-05</v>
+        <v>2.3708036302323199e-05</v>
       </c>
       <c r="AS16">
-        <v>1.1342209912433871e-05</v>
+        <v>7.0968054831188149e-05</v>
       </c>
       <c r="AT16">
-        <v>6.8334831811022798e-05</v>
+        <v>0.0027484077595319027</v>
       </c>
       <c r="AU16">
-        <v>5.2468831776923147e-06</v>
+        <v>0.010781405191944548</v>
       </c>
       <c r="AV16">
-        <v>0.013821650885095068</v>
+        <v>0.0033981506335241311</v>
       </c>
       <c r="AW16">
-        <v>2.4880388956026161e-07</v>
+        <v>0.00064797587082794758</v>
       </c>
       <c r="AX16">
-        <v>0.004842180899147298</v>
+        <v>0.00011327022430626145</v>
       </c>
       <c r="AY16">
-        <v>0.013417586273577302</v>
+        <v>0.013287556021060444</v>
       </c>
       <c r="AZ16">
-        <v>0.0031173924344385972</v>
+        <v>0.0070945901058485396</v>
       </c>
       <c r="BA16">
-        <v>0.033323804416144895</v>
+        <v>0.020246951270651931</v>
       </c>
       <c r="BB16">
-        <v>9.687337147209338e-06</v>
+        <v>2.4088599964490958e-05</v>
       </c>
       <c r="BC16">
-        <v>2.5022549853443721e-06</v>
+        <v>0.00027661409696535654</v>
       </c>
       <c r="BD16">
-        <v>0.00026527149552068528</v>
+        <v>2.14282053963068e-05</v>
       </c>
       <c r="BE16">
-        <v>1.9503792187407641e-08</v>
+        <v>1.9115824520653209e-05</v>
       </c>
       <c r="BF16">
-        <v>0.00012451976603085888</v>
+        <v>2.1746757712696174e-05</v>
       </c>
       <c r="BG16">
-        <v>6.4885609067306594e-07</v>
+        <v>0.0014263128487940952</v>
       </c>
       <c r="BH16">
-        <v>5.3398073894151634e-05</v>
+        <v>0.0001324857993418038</v>
       </c>
       <c r="BI16">
-        <v>2.4417506603551501e-05</v>
+        <v>0.0033354375271222921</v>
       </c>
       <c r="BJ16">
-        <v>0.00019261460369925416</v>
+        <v>3.2028898060533461e-06</v>
       </c>
       <c r="BK16">
-        <v>0.00044613537456739263</v>
+        <v>0.0090115007283002434</v>
       </c>
       <c r="BL16">
-        <v>0.00029207032598873878</v>
+        <v>0.00011312693380529011</v>
       </c>
       <c r="BM16">
-        <v>7.8174022336332061e-06</v>
+        <v>1.4923205854864583e-06</v>
       </c>
       <c r="BN16">
-        <v>0.00039938353213128197</v>
+        <v>0.0002664486731481515</v>
       </c>
       <c r="BO16">
-        <v>0.0004327968877812103</v>
+        <v>0.0020466377745221444</v>
       </c>
       <c r="BP16">
-        <v>2.2485145040980137e-07</v>
+        <v>7.6157326377609019e-06</v>
       </c>
       <c r="BQ16">
-        <v>0.0047311791560937389</v>
+        <v>0.017823557778335011</v>
       </c>
       <c r="BR16">
-        <v>0.004714975685766014</v>
+        <v>0.0085494593757058073</v>
       </c>
       <c r="BS16">
-        <v>1.763391286310225e-05</v>
+        <v>0.00064624688498049812</v>
       </c>
       <c r="BT16">
-        <v>0.80284083995337086</v>
+        <v>0.016658681746513252</v>
       </c>
       <c r="BU16">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>2.5909661635172006e-05</v>
+        <v>1.1705164059510863e-08</v>
       </c>
       <c r="C17">
-        <v>0.0051737223942318411</v>
+        <v>0.00091126527567403067</v>
       </c>
       <c r="D17">
-        <v>0.10677320726728227</v>
+        <v>0.006500874491484651</v>
       </c>
       <c r="E17">
-        <v>0.0020654411055005821</v>
+        <v>0.00010381832735994764</v>
       </c>
       <c r="F17">
-        <v>0.00057468527841205883</v>
+        <v>0.00033315137844717747</v>
       </c>
       <c r="G17">
-        <v>0.001180248225172121</v>
+        <v>0.00011499844448062535</v>
       </c>
       <c r="H17">
-        <v>0.049813768481846293</v>
+        <v>7.027765223969409e-05</v>
       </c>
       <c r="I17">
-        <v>0.003591352223746771</v>
+        <v>1.18315985760049e-05</v>
       </c>
       <c r="J17">
-        <v>1.2085396970128893e-10</v>
+        <v>9.3648549685911635e-11</v>
       </c>
       <c r="K17">
-        <v>4.411628675520916e-05</v>
+        <v>2.4766830281801641e-06</v>
       </c>
       <c r="L17">
-        <v>0.00028301319688478439</v>
+        <v>1.7039123608382462e-05</v>
       </c>
       <c r="M17">
-        <v>0.00031618559768984355</v>
+        <v>1.0825230841358343e-05</v>
       </c>
       <c r="N17">
-        <v>3.7373755965954873e-14</v>
+        <v>2.2205987532856398e-14</v>
       </c>
       <c r="O17">
-        <v>0.0011195295977288781</v>
+        <v>0.0016823664322369533</v>
       </c>
       <c r="P17">
-        <v>2.3326355822025822e-05</v>
+        <v>2.4552249657955873e-05</v>
       </c>
       <c r="Q17">
-        <v>0.0012199584960662726</v>
+        <v>6.3234760650920577e-06</v>
       </c>
       <c r="R17">
-        <v>2.1594744292668253e-06</v>
+        <v>1.9937936004473232e-07</v>
       </c>
       <c r="S17">
-        <v>0.00018546383744463788</v>
+        <v>0.00031603356916956051</v>
       </c>
       <c r="T17">
-        <v>2.8950320905997272e-06</v>
+        <v>4.1081381098447925e-07</v>
       </c>
       <c r="U17">
-        <v>8.3912986177473538e-05</v>
+        <v>0.0047166980668461546</v>
       </c>
       <c r="V17">
-        <v>0.61726581419630078</v>
+        <v>1.6814618281485202e-07</v>
       </c>
       <c r="W17">
-        <v>6.2296856550124531e-06</v>
+        <v>8.7006884880298186e-05</v>
       </c>
       <c r="X17">
-        <v>4.5766518479167548e-09</v>
+        <v>0.0014924607438222461</v>
       </c>
       <c r="Y17">
-        <v>0.0024510854555541257</v>
+        <v>0.011918338807068682</v>
       </c>
       <c r="Z17">
-        <v>0.0084469784240713431</v>
+        <v>0.00045258118195263321</v>
       </c>
       <c r="AA17">
-        <v>0.0036276171905743125</v>
+        <v>0.9317929418448665</v>
       </c>
       <c r="AB17">
-        <v>8.7982410732407963e-05</v>
+        <v>0.00024289570840088515</v>
       </c>
       <c r="AC17">
-        <v>0.0012363065396489544</v>
+        <v>0.00057949098089815556</v>
       </c>
       <c r="AD17">
-        <v>0.036013385617679118</v>
+        <v>0.0036266977567453269</v>
       </c>
       <c r="AE17">
-        <v>0.0051145693401022825</v>
+        <v>0.0038559476216471615</v>
       </c>
       <c r="AF17">
-        <v>5.9873386369007562e-05</v>
+        <v>1.2319686714777768e-05</v>
       </c>
       <c r="AG17">
-        <v>0.0036651508304670062</v>
+        <v>6.2684090838097879e-05</v>
       </c>
       <c r="AH17">
-        <v>0.00025452013038955527</v>
+        <v>4.2172421747014064e-05</v>
       </c>
       <c r="AI17">
-        <v>0.016619201951430629</v>
+        <v>0.011285430662565786</v>
       </c>
       <c r="AJ17">
-        <v>0.0031431670953378094</v>
+        <v>0.0025024123149098884</v>
       </c>
       <c r="AK17">
-        <v>7.2670388958190523e-06</v>
+        <v>9.5466506549046145e-10</v>
       </c>
       <c r="AL17">
-        <v>6.9670503284404063e-05</v>
+        <v>0.0012006931125438168</v>
       </c>
       <c r="AM17">
-        <v>0.0026901416321744908</v>
+        <v>0.00041355538381862838</v>
       </c>
       <c r="AN17">
-        <v>0.0069933671800579602</v>
+        <v>0.00068249974807828339</v>
       </c>
       <c r="AO17">
-        <v>0.00027865247800346537</v>
+        <v>1.4006647644572362e-05</v>
       </c>
       <c r="AP17">
-        <v>7.2684002109281913e-07</v>
+        <v>6.9319651371054411e-07</v>
       </c>
       <c r="AQ17">
-        <v>0.00069120820980444868</v>
+        <v>5.5116873788504921e-06</v>
       </c>
       <c r="AR17">
-        <v>2.3708036302323199e-05</v>
+        <v>1.9527814242120724e-05</v>
       </c>
       <c r="AS17">
-        <v>7.0968054831188149e-05</v>
+        <v>0.00028563534734660288</v>
       </c>
       <c r="AT17">
-        <v>0.0027484077595319027</v>
+        <v>2.4448944147761852e-08</v>
       </c>
       <c r="AU17">
-        <v>0.010781405191944548</v>
+        <v>1.5357604968899627e-05</v>
       </c>
       <c r="AV17">
-        <v>0.0033981506335241311</v>
+        <v>0.0015201210774717154</v>
       </c>
       <c r="AW17">
-        <v>0.00064797587082794758</v>
+        <v>1.1565481689397551e-08</v>
       </c>
       <c r="AX17">
-        <v>0.00011327022430626145</v>
+        <v>0.0018500720528266477</v>
       </c>
       <c r="AY17">
-        <v>0.013287556021060444</v>
+        <v>0.0014247172412216508</v>
       </c>
       <c r="AZ17">
-        <v>0.0070945901058485396</v>
+        <v>0.00073725029254323796</v>
       </c>
       <c r="BA17">
-        <v>0.020246951270651931</v>
+        <v>0.001285240201262606</v>
       </c>
       <c r="BB17">
-        <v>2.4088599964490958e-05</v>
+        <v>5.815751611835699e-06</v>
       </c>
       <c r="BC17">
-        <v>0.00027661409696535654</v>
+        <v>0.00029859503642823843</v>
       </c>
       <c r="BD17">
-        <v>2.14282053963068e-05</v>
+        <v>1.3727256872224691e-05</v>
       </c>
       <c r="BE17">
-        <v>1.9115824520653209e-05</v>
+        <v>6.5699147716855852e-07</v>
       </c>
       <c r="BF17">
-        <v>2.1746757712696174e-05</v>
+        <v>2.2918784756668919e-05</v>
       </c>
       <c r="BG17">
-        <v>0.0014263128487940952</v>
+        <v>1.9533609898588182e-06</v>
       </c>
       <c r="BH17">
-        <v>0.0001324857993418038</v>
+        <v>1.6073961235252067e-05</v>
       </c>
       <c r="BI17">
-        <v>0.0033354375271222921</v>
+        <v>2.0877933073241593e-05</v>
       </c>
       <c r="BJ17">
-        <v>3.2028898060533461e-06</v>
+        <v>4.5534861515572803e-07</v>
       </c>
       <c r="BK17">
-        <v>0.0090115007283002434</v>
+        <v>0.0004905267247142911</v>
       </c>
       <c r="BL17">
-        <v>0.00011312693380529011</v>
+        <v>1.73380126956965e-05</v>
       </c>
       <c r="BM17">
-        <v>1.4923205854864583e-06</v>
+        <v>8.2854258076736373e-06</v>
       </c>
       <c r="BN17">
-        <v>0.0002664486731481515</v>
+        <v>0.00026224735959756918</v>
       </c>
       <c r="BO17">
-        <v>0.0020466377745221444</v>
+        <v>0.00081926093621973296</v>
       </c>
       <c r="BP17">
-        <v>7.6157326377609019e-06</v>
+        <v>2.3786608785658702e-07</v>
       </c>
       <c r="BQ17">
-        <v>0.017823557778335011</v>
+        <v>0.0018015559232809515</v>
       </c>
       <c r="BR17">
-        <v>0.0085494593757058073</v>
+        <v>0.0028242777718298813</v>
       </c>
       <c r="BS17">
-        <v>0.00064624688498049812</v>
+        <v>0.00010756735607936639</v>
       </c>
       <c r="BT17">
-        <v>0.016658681746513252</v>
+        <v>0.0010560069767134885</v>
       </c>
       <c r="BU17">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1.1705164059510863e-08</v>
+        <v>7.039180006039979e-08</v>
       </c>
       <c r="C18">
-        <v>0.00091126527567403067</v>
+        <v>0.0020131301323852799</v>
       </c>
       <c r="D18">
-        <v>0.006500874491484651</v>
+        <v>0.0021931067573063953</v>
       </c>
       <c r="E18">
-        <v>0.00010381832735994764</v>
+        <v>0.00015422234861325296</v>
       </c>
       <c r="F18">
-        <v>0.00033315137844717747</v>
+        <v>0.0015088184493324789</v>
       </c>
       <c r="G18">
-        <v>0.00011499844448062535</v>
+        <v>3.4627356530192968e-05</v>
       </c>
       <c r="H18">
-        <v>7.027765223969409e-05</v>
+        <v>1.78913016694558e-06</v>
       </c>
       <c r="I18">
-        <v>1.18315985760049e-05</v>
+        <v>9.7870298847226411e-06</v>
       </c>
       <c r="J18">
-        <v>9.3648549685911635e-11</v>
+        <v>7.4560765380159011e-09</v>
       </c>
       <c r="K18">
-        <v>2.4766830281801641e-06</v>
+        <v>0.00011186235307259164</v>
       </c>
       <c r="L18">
-        <v>1.7039123608382462e-05</v>
+        <v>3.2271216621829337e-05</v>
       </c>
       <c r="M18">
-        <v>1.0825230841358343e-05</v>
+        <v>1.0322537065304188e-07</v>
       </c>
       <c r="N18">
-        <v>2.2205987532856398e-14</v>
+        <v>2.2208256997517369e-14</v>
       </c>
       <c r="O18">
-        <v>0.0016823664322369533</v>
+        <v>0.00050836772867487805</v>
       </c>
       <c r="P18">
-        <v>2.4552249657955873e-05</v>
+        <v>1.7482642408415752e-05</v>
       </c>
       <c r="Q18">
-        <v>6.3234760650920577e-06</v>
+        <v>2.6538331865594773e-06</v>
       </c>
       <c r="R18">
-        <v>1.9937936004473232e-07</v>
+        <v>6.0614541756657516e-07</v>
       </c>
       <c r="S18">
-        <v>0.00031603356916956051</v>
+        <v>2.1004307423888654e-05</v>
       </c>
       <c r="T18">
-        <v>4.1081381098447925e-07</v>
+        <v>6.0245340806703418e-05</v>
       </c>
       <c r="U18">
-        <v>0.0047166980668461546</v>
+        <v>0.0024159486776073784</v>
       </c>
       <c r="V18">
-        <v>1.6814618281485202e-07</v>
+        <v>3.038760675844686e-09</v>
       </c>
       <c r="W18">
-        <v>8.7006884880298186e-05</v>
+        <v>1.0016555408706286e-05</v>
       </c>
       <c r="X18">
-        <v>0.0014924607438222461</v>
+        <v>0.00024557183279017762</v>
       </c>
       <c r="Y18">
-        <v>0.011918338807068682</v>
+        <v>0.0019951148618758282</v>
       </c>
       <c r="Z18">
-        <v>0.00045258118195263321</v>
+        <v>0.003176486430830443</v>
       </c>
       <c r="AA18">
-        <v>0.9317929418448665</v>
+        <v>0.89755131922666453</v>
       </c>
       <c r="AB18">
-        <v>0.00024289570840088515</v>
+        <v>3.5864021864530302e-05</v>
       </c>
       <c r="AC18">
-        <v>0.00057949098089815556</v>
+        <v>0.0024600791765010876</v>
       </c>
       <c r="AD18">
-        <v>0.0036266977567453269</v>
+        <v>0.00015927945638163389</v>
       </c>
       <c r="AE18">
-        <v>0.0038559476216471615</v>
+        <v>0.00044988661814167709</v>
       </c>
       <c r="AF18">
-        <v>1.2319686714777768e-05</v>
+        <v>3.6531050342575987e-05</v>
       </c>
       <c r="AG18">
-        <v>6.2684090838097879e-05</v>
+        <v>0.00017045620479389653</v>
       </c>
       <c r="AH18">
-        <v>4.2172421747014064e-05</v>
+        <v>2.592161971466009e-05</v>
       </c>
       <c r="AI18">
-        <v>0.011285430662565786</v>
+        <v>0.0035690646203646484</v>
       </c>
       <c r="AJ18">
-        <v>0.0025024123149098884</v>
+        <v>0.0017925798874501144</v>
       </c>
       <c r="AK18">
-        <v>9.5466506549046145e-10</v>
+        <v>7.5764061774892771e-09</v>
       </c>
       <c r="AL18">
-        <v>0.0012006931125438168</v>
+        <v>0.060909348981348442</v>
       </c>
       <c r="AM18">
-        <v>0.00041355538381862838</v>
+        <v>0.0002375345950623535</v>
       </c>
       <c r="AN18">
-        <v>0.00068249974807828339</v>
+        <v>0.00076530228795543905</v>
       </c>
       <c r="AO18">
-        <v>1.4006647644572362e-05</v>
+        <v>2.1627277873956374e-06</v>
       </c>
       <c r="AP18">
-        <v>6.9319651371054411e-07</v>
+        <v>1.2280799776298066e-05</v>
       </c>
       <c r="AQ18">
-        <v>5.5116873788504921e-06</v>
+        <v>9.3148103252570021e-07</v>
       </c>
       <c r="AR18">
-        <v>1.9527814242120724e-05</v>
+        <v>5.5596770222467234e-05</v>
       </c>
       <c r="AS18">
-        <v>0.00028563534734660288</v>
+        <v>0.00013853854792817848</v>
       </c>
       <c r="AT18">
-        <v>2.4448944147761852e-08</v>
+        <v>2.077734035295989e-08</v>
       </c>
       <c r="AU18">
-        <v>1.5357604968899627e-05</v>
+        <v>1.2031696860405251e-06</v>
       </c>
       <c r="AV18">
-        <v>0.0015201210774717154</v>
+        <v>0.00081253825128287322</v>
       </c>
       <c r="AW18">
-        <v>1.1565481689397551e-08</v>
+        <v>2.2687672034333371e-08</v>
       </c>
       <c r="AX18">
-        <v>0.0018500720528266477</v>
+        <v>0.0002770254583021932</v>
       </c>
       <c r="AY18">
-        <v>0.0014247172412216508</v>
+        <v>0.00051355878742422121</v>
       </c>
       <c r="AZ18">
-        <v>0.00073725029254323796</v>
+        <v>0.00029977799443414027</v>
       </c>
       <c r="BA18">
-        <v>0.001285240201262606</v>
+        <v>0.0023619497773822696</v>
       </c>
       <c r="BB18">
-        <v>5.815751611835699e-06</v>
+        <v>1.337376661265925e-05</v>
       </c>
       <c r="BC18">
-        <v>0.00029859503642823843</v>
+        <v>0.0013151257417994</v>
       </c>
       <c r="BD18">
-        <v>1.3727256872224691e-05</v>
+        <v>8.6726066847436677e-06</v>
       </c>
       <c r="BE18">
-        <v>6.5699147716855852e-07</v>
+        <v>0.00087740029586926883</v>
       </c>
       <c r="BF18">
-        <v>2.2918784756668919e-05</v>
+        <v>0.00013463786013107718</v>
       </c>
       <c r="BG18">
-        <v>1.9533609898588182e-06</v>
+        <v>2.9432218210543968e-06</v>
       </c>
       <c r="BH18">
-        <v>1.6073961235252067e-05</v>
+        <v>4.5875330032444147e-05</v>
       </c>
       <c r="BI18">
-        <v>2.0877933073241593e-05</v>
+        <v>1.8451774571334484e-05</v>
       </c>
       <c r="BJ18">
-        <v>4.5534861515572803e-07</v>
+        <v>2.181610824035342e-07</v>
       </c>
       <c r="BK18">
-        <v>0.0004905267247142911</v>
+        <v>0.00084649161074328515</v>
       </c>
       <c r="BL18">
-        <v>1.73380126956965e-05</v>
+        <v>0.00025182028037550117</v>
       </c>
       <c r="BM18">
-        <v>8.2854258076736373e-06</v>
+        <v>0.00035761208126867543</v>
       </c>
       <c r="BN18">
-        <v>0.00026224735959756918</v>
+        <v>0.0026554421692328461</v>
       </c>
       <c r="BO18">
-        <v>0.00081926093621973296</v>
+        <v>0.00047359040588363592</v>
       </c>
       <c r="BP18">
-        <v>2.3786608785658702e-07</v>
+        <v>0.00019583607037908804</v>
       </c>
       <c r="BQ18">
-        <v>0.0018015559232809515</v>
+        <v>0.0011552957531339577</v>
       </c>
       <c r="BR18">
-        <v>0.0028242777718298813</v>
+        <v>0.0021708272363025727</v>
       </c>
       <c r="BS18">
-        <v>0.00010756735607936639</v>
+        <v>0.0001578219027828514</v>
       </c>
       <c r="BT18">
-        <v>0.0010560069767134885</v>
+        <v>0.0021664839356561588</v>
       </c>
       <c r="BU18">
         <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>7.039180006039979e-08</v>
+        <v>4.2168066367071229e-08</v>
       </c>
       <c r="C19">
-        <v>0.0020131301323852799</v>
+        <v>0.0017606398847920144</v>
       </c>
       <c r="D19">
-        <v>0.0021931067573063953</v>
+        <v>0.00095988881053349297</v>
       </c>
       <c r="E19">
-        <v>0.00015422234861325296</v>
+        <v>7.0981827922336581e-05</v>
       </c>
       <c r="F19">
-        <v>0.0015088184493324789</v>
+        <v>0.00033077055343687882</v>
       </c>
       <c r="G19">
-        <v>3.4627356530192968e-05</v>
+        <v>5.2178402209727488e-06</v>
       </c>
       <c r="H19">
-        <v>1.78913016694558e-06</v>
+        <v>3.4218889966181677e-06</v>
       </c>
       <c r="I19">
-        <v>9.7870298847226411e-06</v>
+        <v>9.8080186630401409e-07</v>
       </c>
       <c r="J19">
-        <v>7.4560765380159011e-09</v>
+        <v>2.2041724491779287e-09</v>
       </c>
       <c r="K19">
-        <v>0.00011186235307259164</v>
+        <v>0.00010458259630087201</v>
       </c>
       <c r="L19">
-        <v>3.2271216621829337e-05</v>
+        <v>5.8568254757177687e-06</v>
       </c>
       <c r="M19">
-        <v>1.0322537065304188e-07</v>
+        <v>2.6480638596015734e-07</v>
       </c>
       <c r="N19">
-        <v>2.2208256997517369e-14</v>
+        <v>2.2206480689245109e-14</v>
       </c>
       <c r="O19">
-        <v>0.00050836772867487805</v>
+        <v>0.00025940247246376309</v>
       </c>
       <c r="P19">
-        <v>1.7482642408415752e-05</v>
+        <v>2.6400767654307889e-06</v>
       </c>
       <c r="Q19">
-        <v>2.6538331865594773e-06</v>
+        <v>1.6952026410608871e-06</v>
       </c>
       <c r="R19">
-        <v>6.0614541756657516e-07</v>
+        <v>1.4176268499640854e-06</v>
       </c>
       <c r="S19">
-        <v>2.1004307423888654e-05</v>
+        <v>2.5179285833670966e-06</v>
       </c>
       <c r="T19">
-        <v>6.0245340806703418e-05</v>
+        <v>1.016076839445838e-05</v>
       </c>
       <c r="U19">
-        <v>0.0024159486776073784</v>
+        <v>0.0013295069151180578</v>
       </c>
       <c r="V19">
-        <v>3.038760675844686e-09</v>
+        <v>1.9412271543363639e-09</v>
       </c>
       <c r="W19">
-        <v>1.0016555408706286e-05</v>
+        <v>2.2847601672762028e-05</v>
       </c>
       <c r="X19">
-        <v>0.00024557183279017762</v>
+        <v>0.00020345962874123111</v>
       </c>
       <c r="Y19">
-        <v>0.0019951148618758282</v>
+        <v>0.0011926400568161724</v>
       </c>
       <c r="Z19">
-        <v>0.003176486430830443</v>
+        <v>0.0040797239658092802</v>
       </c>
       <c r="AA19">
-        <v>0.89755131922666453</v>
+        <v>0.92582480958820279</v>
       </c>
       <c r="AB19">
-        <v>3.5864021864530302e-05</v>
+        <v>5.3595616621596161e-06</v>
       </c>
       <c r="AC19">
-        <v>0.0024600791765010876</v>
+        <v>0.0012041646324895141</v>
       </c>
       <c r="AD19">
-        <v>0.00015927945638163389</v>
+        <v>0.00055156508199660011</v>
       </c>
       <c r="AE19">
-        <v>0.00044988661814167709</v>
+        <v>0.004069036929650478</v>
       </c>
       <c r="AF19">
-        <v>3.6531050342575987e-05</v>
+        <v>1.2337876593207029e-06</v>
       </c>
       <c r="AG19">
-        <v>0.00017045620479389653</v>
+        <v>0.0002779570054218199</v>
       </c>
       <c r="AH19">
-        <v>2.592161971466009e-05</v>
+        <v>7.537941130519422e-06</v>
       </c>
       <c r="AI19">
-        <v>0.0035690646203646484</v>
+        <v>0.0054931646339934827</v>
       </c>
       <c r="AJ19">
-        <v>0.0017925798874501144</v>
+        <v>0.0022259182712029853</v>
       </c>
       <c r="AK19">
-        <v>7.5764061774892771e-09</v>
+        <v>9.6030187673019501e-09</v>
       </c>
       <c r="AL19">
-        <v>0.060909348981348442</v>
+        <v>0.040330582337001743</v>
       </c>
       <c r="AM19">
-        <v>0.0002375345950623535</v>
+        <v>5.0007785920844826e-05</v>
       </c>
       <c r="AN19">
-        <v>0.00076530228795543905</v>
+        <v>0.00017025623870918936</v>
       </c>
       <c r="AO19">
-        <v>2.1627277873956374e-06</v>
+        <v>4.2092204250969439e-06</v>
       </c>
       <c r="AP19">
-        <v>1.2280799776298066e-05</v>
+        <v>2.2172278936237224e-06</v>
       </c>
       <c r="AQ19">
-        <v>9.3148103252570021e-07</v>
+        <v>3.4938162601777177e-06</v>
       </c>
       <c r="AR19">
-        <v>5.5596770222467234e-05</v>
+        <v>0.00034276455687578411</v>
       </c>
       <c r="AS19">
-        <v>0.00013853854792817848</v>
+        <v>3.7623899498256175e-05</v>
       </c>
       <c r="AT19">
-        <v>2.077734035295989e-08</v>
+        <v>1.5218109665246944e-08</v>
       </c>
       <c r="AU19">
-        <v>1.2031696860405251e-06</v>
+        <v>2.0083205762726548e-08</v>
       </c>
       <c r="AV19">
-        <v>0.00081253825128287322</v>
+        <v>0.00052916768792537691</v>
       </c>
       <c r="AW19">
-        <v>2.2687672034333371e-08</v>
+        <v>1.2960302382794551e-07</v>
       </c>
       <c r="AX19">
-        <v>0.0002770254583021932</v>
+        <v>0.00038129701094540951</v>
       </c>
       <c r="AY19">
-        <v>0.00051355878742422121</v>
+        <v>0.00036280554193011765</v>
       </c>
       <c r="AZ19">
-        <v>0.00029977799443414027</v>
+        <v>0.00028292571524181668</v>
       </c>
       <c r="BA19">
-        <v>0.0023619497773822696</v>
+        <v>0.001818503834993515</v>
       </c>
       <c r="BB19">
-        <v>1.337376661265925e-05</v>
+        <v>1.0862128557943435e-06</v>
       </c>
       <c r="BC19">
-        <v>0.0013151257417994</v>
+        <v>0.00048021989967482275</v>
       </c>
       <c r="BD19">
-        <v>8.6726066847436677e-06</v>
+        <v>6.1853921175338402e-06</v>
       </c>
       <c r="BE19">
-        <v>0.00087740029586926883</v>
+        <v>1.698231251026306e-05</v>
       </c>
       <c r="BF19">
-        <v>0.00013463786013107718</v>
+        <v>6.9475087675076498e-06</v>
       </c>
       <c r="BG19">
-        <v>2.9432218210543968e-06</v>
+        <v>5.5729184349919156e-06</v>
       </c>
       <c r="BH19">
-        <v>4.5875330032444147e-05</v>
+        <v>1.9238326763438123e-05</v>
       </c>
       <c r="BI19">
-        <v>1.8451774571334484e-05</v>
+        <v>5.4138736391072595e-06</v>
       </c>
       <c r="BJ19">
-        <v>2.181610824035342e-07</v>
+        <v>7.0662398186155001e-08</v>
       </c>
       <c r="BK19">
-        <v>0.00084649161074328515</v>
+        <v>0.0007430371005819527</v>
       </c>
       <c r="BL19">
-        <v>0.00025182028037550117</v>
+        <v>7.7222972066185819e-05</v>
       </c>
       <c r="BM19">
-        <v>0.00035761208126867543</v>
+        <v>3.6677937566734679e-05</v>
       </c>
       <c r="BN19">
-        <v>0.0026554421692328461</v>
+        <v>0.00043870344687413972</v>
       </c>
       <c r="BO19">
-        <v>0.00047359040588363592</v>
+        <v>0.00034041310517196551</v>
       </c>
       <c r="BP19">
-        <v>0.00019583607037908804</v>
+        <v>1.1903583240511206e-06</v>
       </c>
       <c r="BQ19">
-        <v>0.0011552957531339577</v>
+        <v>0.00093819332275987962</v>
       </c>
       <c r="BR19">
-        <v>0.0021708272363025727</v>
+        <v>0.0019621355014947908</v>
       </c>
       <c r="BS19">
-        <v>0.0001578219027828514</v>
+        <v>8.5064095989510798e-05</v>
       </c>
       <c r="BT19">
-        <v>0.0021664839356561588</v>
+        <v>0.00051020384434572656</v>
       </c>
       <c r="BU19">
         <v>26</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>4.2168066367071229e-08</v>
+        <v>6.4332385921034884e-08</v>
       </c>
       <c r="C20">
-        <v>0.0017606398847920144</v>
+        <v>0.0021298780578818447</v>
       </c>
       <c r="D20">
-        <v>0.00095988881053349297</v>
+        <v>0.00098451069940522521</v>
       </c>
       <c r="E20">
-        <v>7.0981827922336581e-05</v>
+        <v>0.00068821813779896212</v>
       </c>
       <c r="F20">
-        <v>0.00033077055343687882</v>
+        <v>0.00047449675441184938</v>
       </c>
       <c r="G20">
-        <v>5.2178402209727488e-06</v>
+        <v>5.0451125424904924e-06</v>
       </c>
       <c r="H20">
-        <v>3.4218889966181677e-06</v>
+        <v>2.1138216716798921e-06</v>
       </c>
       <c r="I20">
-        <v>9.8080186630401409e-07</v>
+        <v>2.2333684437228499e-06</v>
       </c>
       <c r="J20">
-        <v>2.2041724491779287e-09</v>
+        <v>6.9244159228571707e-09</v>
       </c>
       <c r="K20">
-        <v>0.00010458259630087201</v>
+        <v>2.4866272396033656e-06</v>
       </c>
       <c r="L20">
-        <v>5.8568254757177687e-06</v>
+        <v>4.2629137783071073e-05</v>
       </c>
       <c r="M20">
-        <v>2.6480638596015734e-07</v>
+        <v>1.9641156457064491e-06</v>
       </c>
       <c r="N20">
-        <v>2.2206480689245109e-14</v>
+        <v>2.2205465719650834e-14</v>
       </c>
       <c r="O20">
-        <v>0.00025940247246376309</v>
+        <v>0.0012777086341334378</v>
       </c>
       <c r="P20">
-        <v>2.6400767654307889e-06</v>
+        <v>8.2147888638099054e-06</v>
       </c>
       <c r="Q20">
-        <v>1.6952026410608871e-06</v>
+        <v>6.4525604197001146e-06</v>
       </c>
       <c r="R20">
-        <v>1.4176268499640854e-06</v>
+        <v>2.8021531523737892e-06</v>
       </c>
       <c r="S20">
-        <v>2.5179285833670966e-06</v>
+        <v>6.9261362951163812e-07</v>
       </c>
       <c r="T20">
-        <v>1.016076839445838e-05</v>
+        <v>3.8266300842515155e-05</v>
       </c>
       <c r="U20">
-        <v>0.0013295069151180578</v>
+        <v>0.00039101824290115386</v>
       </c>
       <c r="V20">
-        <v>1.9412271543363639e-09</v>
+        <v>4.1859112448381176e-09</v>
       </c>
       <c r="W20">
-        <v>2.2847601672762028e-05</v>
+        <v>0.00043515898200045642</v>
       </c>
       <c r="X20">
-        <v>0.00020345962874123111</v>
+        <v>6.5210007480064698e-05</v>
       </c>
       <c r="Y20">
-        <v>0.0011926400568161724</v>
+        <v>0.00090889890532126435</v>
       </c>
       <c r="Z20">
-        <v>0.0040797239658092802</v>
+        <v>0.011160530209726396</v>
       </c>
       <c r="AA20">
-        <v>0.92582480958820279</v>
+        <v>0.95169530755395015</v>
       </c>
       <c r="AB20">
-        <v>5.3595616621596161e-06</v>
+        <v>8.5663370956126869e-06</v>
       </c>
       <c r="AC20">
-        <v>0.0012041646324895141</v>
+        <v>0.0005683609631128827</v>
       </c>
       <c r="AD20">
-        <v>0.00055156508199660011</v>
+        <v>0.00058681318722211633</v>
       </c>
       <c r="AE20">
-        <v>0.004069036929650478</v>
+        <v>0.00347181649634287</v>
       </c>
       <c r="AF20">
-        <v>1.2337876593207029e-06</v>
+        <v>8.4296839250370882e-07</v>
       </c>
       <c r="AG20">
-        <v>0.0002779570054218199</v>
+        <v>0.00042765533304734565</v>
       </c>
       <c r="AH20">
-        <v>7.537941130519422e-06</v>
+        <v>3.7847700643342923e-05</v>
       </c>
       <c r="AI20">
-        <v>0.0054931646339934827</v>
+        <v>0.0079286885610714494</v>
       </c>
       <c r="AJ20">
-        <v>0.0022259182712029853</v>
+        <v>0.0015169567336625002</v>
       </c>
       <c r="AK20">
-        <v>9.6030187673019501e-09</v>
+        <v>8.6028006642174922e-09</v>
       </c>
       <c r="AL20">
-        <v>0.040330582337001743</v>
+        <v>0.0023953291765357971</v>
       </c>
       <c r="AM20">
-        <v>5.0007785920844826e-05</v>
+        <v>3.2255042274006753e-05</v>
       </c>
       <c r="AN20">
-        <v>0.00017025623870918936</v>
+        <v>7.3435492107690688e-05</v>
       </c>
       <c r="AO20">
-        <v>4.2092204250969439e-06</v>
+        <v>9.3885012365546649e-06</v>
       </c>
       <c r="AP20">
-        <v>2.2172278936237224e-06</v>
+        <v>1.9378398824153955e-06</v>
       </c>
       <c r="AQ20">
-        <v>3.4938162601777177e-06</v>
+        <v>6.1752449802654185e-06</v>
       </c>
       <c r="AR20">
-        <v>0.00034276455687578411</v>
+        <v>7.3110258782871959e-05</v>
       </c>
       <c r="AS20">
-        <v>3.7623899498256175e-05</v>
+        <v>2.2063779494549147e-05</v>
       </c>
       <c r="AT20">
-        <v>1.5218109665246944e-08</v>
+        <v>2.1804507318745771e-08</v>
       </c>
       <c r="AU20">
-        <v>2.0083205762726548e-08</v>
+        <v>1.3813075548233083e-07</v>
       </c>
       <c r="AV20">
-        <v>0.00052916768792537691</v>
+        <v>0.00046837319531811109</v>
       </c>
       <c r="AW20">
-        <v>1.2960302382794551e-07</v>
+        <v>3.9096185652515742e-07</v>
       </c>
       <c r="AX20">
-        <v>0.00038129701094540951</v>
+        <v>0.00076644567837104753</v>
       </c>
       <c r="AY20">
-        <v>0.00036280554193011765</v>
+        <v>0.00043194587624972782</v>
       </c>
       <c r="AZ20">
-        <v>0.00028292571524181668</v>
+        <v>0.00023471640600269026</v>
       </c>
       <c r="BA20">
-        <v>0.001818503834993515</v>
+        <v>0.0032963758771283693</v>
       </c>
       <c r="BB20">
-        <v>1.0862128557943435e-06</v>
+        <v>3.8659287803404308e-07</v>
       </c>
       <c r="BC20">
-        <v>0.00048021989967482275</v>
+        <v>0.00012887491605173524</v>
       </c>
       <c r="BD20">
-        <v>6.1853921175338402e-06</v>
+        <v>7.469777515786902e-06</v>
       </c>
       <c r="BE20">
-        <v>1.698231251026306e-05</v>
+        <v>2.7188327954864428e-05</v>
       </c>
       <c r="BF20">
-        <v>6.9475087675076498e-06</v>
+        <v>1.5923361824398947e-05</v>
       </c>
       <c r="BG20">
-        <v>5.5729184349919156e-06</v>
+        <v>2.5418995404332182e-05</v>
       </c>
       <c r="BH20">
-        <v>1.9238326763438123e-05</v>
+        <v>2.4077802725859582e-05</v>
       </c>
       <c r="BI20">
-        <v>5.4138736391072595e-06</v>
+        <v>6.6580387179505507e-06</v>
       </c>
       <c r="BJ20">
-        <v>7.0662398186155001e-08</v>
+        <v>3.7744494353558629e-08</v>
       </c>
       <c r="BK20">
-        <v>0.0007430371005819527</v>
+        <v>0.0008602047936496325</v>
       </c>
       <c r="BL20">
-        <v>7.7222972066185819e-05</v>
+        <v>9.1815550567693975e-05</v>
       </c>
       <c r="BM20">
-        <v>3.6677937566734679e-05</v>
+        <v>2.2329497889083341e-05</v>
       </c>
       <c r="BN20">
-        <v>0.00043870344687413972</v>
+        <v>0.00026434978416011275</v>
       </c>
       <c r="BO20">
-        <v>0.00034041310517196551</v>
+        <v>0.00050154970660479172</v>
       </c>
       <c r="BP20">
-        <v>1.1903583240511206e-06</v>
+        <v>2.6989153896284293e-06</v>
       </c>
       <c r="BQ20">
-        <v>0.00093819332275987962</v>
+        <v>0.00083948776929571847</v>
       </c>
       <c r="BR20">
-        <v>0.0019621355014947908</v>
+        <v>0.0019758850297721966</v>
       </c>
       <c r="BS20">
-        <v>8.5064095989510798e-05</v>
+        <v>0.00088986856574181216</v>
       </c>
       <c r="BT20">
-        <v>0.00051020384434572656</v>
+        <v>0.0016322024525069426</v>
       </c>
       <c r="BU20">
         <v>26</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>6.4332385921034884e-08</v>
+        <v>1.8893067294471915e-08</v>
       </c>
       <c r="C21">
-        <v>0.0021298780578818447</v>
+        <v>0.0027061636043516977</v>
       </c>
       <c r="D21">
-        <v>0.00098451069940522521</v>
+        <v>0.0066792749039871948</v>
       </c>
       <c r="E21">
-        <v>0.00068821813779896212</v>
+        <v>8.177257699595777e-05</v>
       </c>
       <c r="F21">
-        <v>0.00047449675441184938</v>
+        <v>0.0013605054439085023</v>
       </c>
       <c r="G21">
-        <v>5.0451125424904924e-06</v>
+        <v>0.00021163784692772308</v>
       </c>
       <c r="H21">
-        <v>2.1138216716798921e-06</v>
+        <v>2.7930348140678603e-07</v>
       </c>
       <c r="I21">
-        <v>2.2333684437228499e-06</v>
+        <v>1.8664433097380559e-06</v>
       </c>
       <c r="J21">
-        <v>6.9244159228571707e-09</v>
+        <v>4.2452230077651134e-09</v>
       </c>
       <c r="K21">
-        <v>2.4866272396033656e-06</v>
+        <v>1.0884994618461407e-05</v>
       </c>
       <c r="L21">
-        <v>4.2629137783071073e-05</v>
+        <v>2.5795268116871959e-05</v>
       </c>
       <c r="M21">
-        <v>1.9641156457064491e-06</v>
+        <v>4.1989215560651517e-06</v>
       </c>
       <c r="N21">
-        <v>2.2205465719650834e-14</v>
+        <v>2.2205647953152165e-14</v>
       </c>
       <c r="O21">
-        <v>0.0012777086341334378</v>
+        <v>0.00049990938589464771</v>
       </c>
       <c r="P21">
-        <v>8.2147888638099054e-06</v>
+        <v>0.0018738167833550797</v>
       </c>
       <c r="Q21">
-        <v>6.4525604197001146e-06</v>
+        <v>8.9570179830886857e-06</v>
       </c>
       <c r="R21">
-        <v>2.8021531523737892e-06</v>
+        <v>3.0170705593163172e-07</v>
       </c>
       <c r="S21">
-        <v>6.9261362951163812e-07</v>
+        <v>8.2747436725730203e-07</v>
       </c>
       <c r="T21">
-        <v>3.8266300842515155e-05</v>
+        <v>8.4808371353952544e-05</v>
       </c>
       <c r="U21">
-        <v>0.00039101824290115386</v>
+        <v>0.00016430274776268905</v>
       </c>
       <c r="V21">
-        <v>4.1859112448381176e-09</v>
+        <v>4.1982101280578404e-09</v>
       </c>
       <c r="W21">
-        <v>0.00043515898200045642</v>
+        <v>0.010936058659359413</v>
       </c>
       <c r="X21">
-        <v>6.5210007480064698e-05</v>
+        <v>4.7039928669510271e-05</v>
       </c>
       <c r="Y21">
-        <v>0.00090889890532126435</v>
+        <v>0.00014779423305414974</v>
       </c>
       <c r="Z21">
-        <v>0.011160530209726396</v>
+        <v>0.0035220337583178824</v>
       </c>
       <c r="AA21">
-        <v>0.95169530755395015</v>
+        <v>0.93527907247655662</v>
       </c>
       <c r="AB21">
-        <v>8.5663370956126869e-06</v>
+        <v>1.2314515806706918e-05</v>
       </c>
       <c r="AC21">
-        <v>0.0005683609631128827</v>
+        <v>0.0030881108523618628</v>
       </c>
       <c r="AD21">
-        <v>0.00058681318722211633</v>
+        <v>0.0041682645959276697</v>
       </c>
       <c r="AE21">
-        <v>0.00347181649634287</v>
+        <v>0.00068534778779535596</v>
       </c>
       <c r="AF21">
-        <v>8.4296839250370882e-07</v>
+        <v>3.0479958666793292e-05</v>
       </c>
       <c r="AG21">
-        <v>0.00042765533304734565</v>
+        <v>2.6248713867593521e-05</v>
       </c>
       <c r="AH21">
-        <v>3.7847700643342923e-05</v>
+        <v>2.7096756225005575e-06</v>
       </c>
       <c r="AI21">
-        <v>0.0079286885610714494</v>
+        <v>0.0043084960628760102</v>
       </c>
       <c r="AJ21">
-        <v>0.0015169567336625002</v>
+        <v>0.00053366385084570268</v>
       </c>
       <c r="AK21">
-        <v>8.6028006642174922e-09</v>
+        <v>1.36817852413666e-07</v>
       </c>
       <c r="AL21">
-        <v>0.0023953291765357971</v>
+        <v>0.0064960495098268928</v>
       </c>
       <c r="AM21">
-        <v>3.2255042274006753e-05</v>
+        <v>5.8185222231156362e-05</v>
       </c>
       <c r="AN21">
-        <v>7.3435492107690688e-05</v>
+        <v>0.0010353268304780746</v>
       </c>
       <c r="AO21">
-        <v>9.3885012365546649e-06</v>
+        <v>3.1072499033647125e-05</v>
       </c>
       <c r="AP21">
-        <v>1.9378398824153955e-06</v>
+        <v>3.4733024597948057e-06</v>
       </c>
       <c r="AQ21">
-        <v>6.1752449802654185e-06</v>
+        <v>4.43071620706138e-06</v>
       </c>
       <c r="AR21">
-        <v>7.3110258782871959e-05</v>
+        <v>9.72832694375096e-05</v>
       </c>
       <c r="AS21">
-        <v>2.2063779494549147e-05</v>
+        <v>9.1426710902432708e-05</v>
       </c>
       <c r="AT21">
-        <v>2.1804507318745771e-08</v>
+        <v>3.7361899223834973e-08</v>
       </c>
       <c r="AU21">
-        <v>1.3813075548233083e-07</v>
+        <v>3.0870687286519751e-07</v>
       </c>
       <c r="AV21">
-        <v>0.00046837319531811109</v>
+        <v>0.00069875611146201033</v>
       </c>
       <c r="AW21">
-        <v>3.9096185652515742e-07</v>
+        <v>2.1349070328993781e-08</v>
       </c>
       <c r="AX21">
-        <v>0.00076644567837104753</v>
+        <v>0.00010997007336877974</v>
       </c>
       <c r="AY21">
-        <v>0.00043194587624972782</v>
+        <v>0.00024023493463661835</v>
       </c>
       <c r="AZ21">
-        <v>0.00023471640600269026</v>
+        <v>0.00017031212751190193</v>
       </c>
       <c r="BA21">
-        <v>0.0032963758771283693</v>
+        <v>0.0015546361882412707</v>
       </c>
       <c r="BB21">
-        <v>3.8659287803404308e-07</v>
+        <v>1.9137732674580207e-06</v>
       </c>
       <c r="BC21">
-        <v>0.00012887491605173524</v>
+        <v>0.000523611361999215</v>
       </c>
       <c r="BD21">
-        <v>7.469777515786902e-06</v>
+        <v>3.7007461939324798e-05</v>
       </c>
       <c r="BE21">
-        <v>2.7188327954864428e-05</v>
+        <v>0.00023006993019926807</v>
       </c>
       <c r="BF21">
-        <v>1.5923361824398947e-05</v>
+        <v>4.2110792085056069e-06</v>
       </c>
       <c r="BG21">
-        <v>2.5418995404332182e-05</v>
+        <v>3.0015225449640751e-06</v>
       </c>
       <c r="BH21">
-        <v>2.4077802725859582e-05</v>
+        <v>0.00013515798231466985</v>
       </c>
       <c r="BI21">
-        <v>6.6580387179505507e-06</v>
+        <v>8.2907716528594915e-06</v>
       </c>
       <c r="BJ21">
-        <v>3.7744494353558629e-08</v>
+        <v>4.104951371392769e-07</v>
       </c>
       <c r="BK21">
-        <v>0.0008602047936496325</v>
+        <v>0.0013009097986557778</v>
       </c>
       <c r="BL21">
-        <v>9.1815550567693975e-05</v>
+        <v>0.00024940750237352548</v>
       </c>
       <c r="BM21">
-        <v>2.2329497889083341e-05</v>
+        <v>0.00012804213771152475</v>
       </c>
       <c r="BN21">
-        <v>0.00026434978416011275</v>
+        <v>0.00046866368002183211</v>
       </c>
       <c r="BO21">
-        <v>0.00050154970660479172</v>
+        <v>0.0007366364556231264</v>
       </c>
       <c r="BP21">
-        <v>2.6989153896284293e-06</v>
+        <v>0.00012059930274165392</v>
       </c>
       <c r="BQ21">
-        <v>0.00083948776929571847</v>
+        <v>0.0028991757977132404</v>
       </c>
       <c r="BR21">
-        <v>0.0019758850297721966</v>
+        <v>0.0028392856529407301</v>
       </c>
       <c r="BS21">
-        <v>0.00088986856574181216</v>
+        <v>0.0025972592002254315</v>
       </c>
       <c r="BT21">
-        <v>0.0016322024525069426</v>
+        <v>0.0006217191609610551</v>
       </c>
       <c r="BU21">
         <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>1.8893067294471915e-08</v>
+        <v>7.220923942499607e-08</v>
       </c>
       <c r="C22">
-        <v>0.0027061636043516977</v>
+        <v>0.003094829407805675</v>
       </c>
       <c r="D22">
-        <v>0.0066792749039871948</v>
+        <v>0.0074811559958554751</v>
       </c>
       <c r="E22">
-        <v>8.177257699595777e-05</v>
+        <v>0.00022621854362514708</v>
       </c>
       <c r="F22">
-        <v>0.0013605054439085023</v>
+        <v>0.0084033190201288181</v>
       </c>
       <c r="G22">
-        <v>0.00021163784692772308</v>
+        <v>0.00022579908521891848</v>
       </c>
       <c r="H22">
-        <v>2.7930348140678603e-07</v>
+        <v>2.9060057238735547e-06</v>
       </c>
       <c r="I22">
-        <v>1.8664433097380559e-06</v>
+        <v>5.2307483559762994e-06</v>
       </c>
       <c r="J22">
-        <v>4.2452230077651134e-09</v>
+        <v>4.3395433274520809e-09</v>
       </c>
       <c r="K22">
-        <v>1.0884994618461407e-05</v>
+        <v>1.2651301258902596e-05</v>
       </c>
       <c r="L22">
-        <v>2.5795268116871959e-05</v>
+        <v>9.4141090548312953e-06</v>
       </c>
       <c r="M22">
-        <v>4.1989215560651517e-06</v>
+        <v>1.0151961076462203e-07</v>
       </c>
       <c r="N22">
-        <v>2.2205647953152165e-14</v>
+        <v>2.220482451100777e-14</v>
       </c>
       <c r="O22">
-        <v>0.00049990938589464771</v>
+        <v>0.00026428474649908899</v>
       </c>
       <c r="P22">
-        <v>0.0018738167833550797</v>
+        <v>3.4431612460191913e-05</v>
       </c>
       <c r="Q22">
-        <v>8.9570179830886857e-06</v>
+        <v>6.7353079399420343e-06</v>
       </c>
       <c r="R22">
-        <v>3.0170705593163172e-07</v>
+        <v>4.176550967368122e-07</v>
       </c>
       <c r="S22">
-        <v>8.2747436725730203e-07</v>
+        <v>1.4520455946488469e-05</v>
       </c>
       <c r="T22">
-        <v>8.4808371353952544e-05</v>
+        <v>7.4373718439869934e-05</v>
       </c>
       <c r="U22">
-        <v>0.00016430274776268905</v>
+        <v>0.00022771603664388558</v>
       </c>
       <c r="V22">
-        <v>4.1982101280578404e-09</v>
+        <v>2.0421884561924406e-09</v>
       </c>
       <c r="W22">
-        <v>0.010936058659359413</v>
+        <v>0.00033028338491316819</v>
       </c>
       <c r="X22">
-        <v>4.7039928669510271e-05</v>
+        <v>5.3073754769677942e-05</v>
       </c>
       <c r="Y22">
-        <v>0.00014779423305414974</v>
+        <v>0.00036793058101185195</v>
       </c>
       <c r="Z22">
-        <v>0.0035220337583178824</v>
+        <v>0.0032449487635027269</v>
       </c>
       <c r="AA22">
-        <v>0.93527907247655662</v>
+        <v>0.93320545519591336</v>
       </c>
       <c r="AB22">
-        <v>1.2314515806706918e-05</v>
+        <v>2.6974647065997513e-05</v>
       </c>
       <c r="AC22">
-        <v>0.0030881108523618628</v>
+        <v>0.0013919008144816049</v>
       </c>
       <c r="AD22">
-        <v>0.0041682645959276697</v>
+        <v>0.00044070480971079379</v>
       </c>
       <c r="AE22">
-        <v>0.00068534778779535596</v>
+        <v>0.00053405339279413851</v>
       </c>
       <c r="AF22">
-        <v>3.0479958666793292e-05</v>
+        <v>7.8145538860789369e-05</v>
       </c>
       <c r="AG22">
-        <v>2.6248713867593521e-05</v>
+        <v>5.6131813977989099e-05</v>
       </c>
       <c r="AH22">
-        <v>2.7096756225005575e-06</v>
+        <v>0.00011043932935752471</v>
       </c>
       <c r="AI22">
-        <v>0.0043084960628760102</v>
+        <v>0.0038824644798186184</v>
       </c>
       <c r="AJ22">
-        <v>0.00053366385084570268</v>
+        <v>0.0009657113170530577</v>
       </c>
       <c r="AK22">
-        <v>1.36817852413666e-07</v>
+        <v>2.9342587811992922e-08</v>
       </c>
       <c r="AL22">
-        <v>0.0064960495098268928</v>
+        <v>0.019872995642962674</v>
       </c>
       <c r="AM22">
-        <v>5.8185222231156362e-05</v>
+        <v>4.4362024560087721e-05</v>
       </c>
       <c r="AN22">
-        <v>0.0010353268304780746</v>
+        <v>0.0014199638888288857</v>
       </c>
       <c r="AO22">
-        <v>3.1072499033647125e-05</v>
+        <v>3.4410844595046593e-06</v>
       </c>
       <c r="AP22">
-        <v>3.4733024597948057e-06</v>
+        <v>1.711721771826425e-05</v>
       </c>
       <c r="AQ22">
-        <v>4.43071620706138e-06</v>
+        <v>2.6011336503701067e-06</v>
       </c>
       <c r="AR22">
-        <v>9.72832694375096e-05</v>
+        <v>5.0167935365417325e-05</v>
       </c>
       <c r="AS22">
-        <v>9.1426710902432708e-05</v>
+        <v>2.5525231323261965e-05</v>
       </c>
       <c r="AT22">
-        <v>3.7361899223834973e-08</v>
+        <v>2.3894882881775442e-08</v>
       </c>
       <c r="AU22">
-        <v>3.0870687286519751e-07</v>
+        <v>1.1093044568882794e-06</v>
       </c>
       <c r="AV22">
-        <v>0.00069875611146201033</v>
+        <v>0.00033070522961625839</v>
       </c>
       <c r="AW22">
-        <v>2.1349070328993781e-08</v>
+        <v>1.1273845576532788e-07</v>
       </c>
       <c r="AX22">
-        <v>0.00010997007336877974</v>
+        <v>6.8744662557932568e-05</v>
       </c>
       <c r="AY22">
-        <v>0.00024023493463661835</v>
+        <v>0.00051000358033800441</v>
       </c>
       <c r="AZ22">
-        <v>0.00017031212751190193</v>
+        <v>0.00018058035081057493</v>
       </c>
       <c r="BA22">
-        <v>0.0015546361882412707</v>
+        <v>0.0017314564922025096</v>
       </c>
       <c r="BB22">
-        <v>1.9137732674580207e-06</v>
+        <v>4.6459794133006965e-06</v>
       </c>
       <c r="BC22">
-        <v>0.000523611361999215</v>
+        <v>0.00086872393857244043</v>
       </c>
       <c r="BD22">
-        <v>3.7007461939324798e-05</v>
+        <v>2.8362413364972504e-05</v>
       </c>
       <c r="BE22">
-        <v>0.00023006993019926807</v>
+        <v>0.00018411962794865239</v>
       </c>
       <c r="BF22">
-        <v>4.2110792085056069e-06</v>
+        <v>1.1730106274723999e-05</v>
       </c>
       <c r="BG22">
-        <v>3.0015225449640751e-06</v>
+        <v>1.1459763790394466e-06</v>
       </c>
       <c r="BH22">
-        <v>0.00013515798231466985</v>
+        <v>2.0250434488957759e-05</v>
       </c>
       <c r="BI22">
-        <v>8.2907716528594915e-06</v>
+        <v>3.9516972038846271e-05</v>
       </c>
       <c r="BJ22">
-        <v>4.104951371392769e-07</v>
+        <v>1.1076936683173403e-08</v>
       </c>
       <c r="BK22">
-        <v>0.0013009097986557778</v>
+        <v>0.0010299701339382152</v>
       </c>
       <c r="BL22">
-        <v>0.00024940750237352548</v>
+        <v>0.00023812843615122654</v>
       </c>
       <c r="BM22">
-        <v>0.00012804213771152475</v>
+        <v>0.00010281202191326962</v>
       </c>
       <c r="BN22">
-        <v>0.00046866368002183211</v>
+        <v>0.00063206198613252964</v>
       </c>
       <c r="BO22">
-        <v>0.0007366364556231264</v>
+        <v>0.00095977648278344665</v>
       </c>
       <c r="BP22">
-        <v>0.00012059930274165392</v>
+        <v>4.0238108810013378e-05</v>
       </c>
       <c r="BQ22">
-        <v>0.0028991757977132404</v>
+        <v>0.0018146642048981025</v>
       </c>
       <c r="BR22">
-        <v>0.0028392856529407301</v>
+        <v>0.0028212680054449124</v>
       </c>
       <c r="BS22">
-        <v>0.0025972592002254315</v>
+        <v>9.1572380685115738e-05</v>
       </c>
       <c r="BT22">
-        <v>0.0006217191609610551</v>
+        <v>0.0020796602751594509</v>
       </c>
       <c r="BU22">
         <v>26</v>
